--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,8 +437,16 @@
           <t>Q406</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr"/>
@@ -449,6 +457,8 @@
       <c r="M1" t="inlineStr"/>
       <c r="N1" t="inlineStr"/>
       <c r="O1" t="inlineStr"/>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,8 +476,16 @@
           <t>Q403</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -478,6 +496,8 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -495,8 +515,16 @@
           <t>"Papież Bonifacy IX przyznaje Małgorzacie, wdowie po mieszczaninie wrocławskim Johannesie von Sitten, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -507,6 +535,8 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -554,12 +584,22 @@
           <t>"185v"</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,8 +617,16 @@
           <t>+1394-04-23T00:00:00Z/11</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -589,6 +637,8 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -606,8 +656,16 @@
           <t>Q31</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -618,6 +676,8 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -645,8 +705,16 @@
           <t>Q386</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -655,6 +723,8 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -684,6 +754,8 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -713,6 +785,8 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -758,6 +832,8 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -787,6 +863,8 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -816,6 +894,8 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -845,6 +925,8 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -874,6 +956,8 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -891,8 +975,16 @@
           <t>Q402</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -903,6 +995,8 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -920,8 +1014,16 @@
           <t>Q406</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -932,6 +1034,8 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -949,8 +1053,16 @@
           <t>Q403</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -961,6 +1073,8 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -978,8 +1092,16 @@
           <t>"Papież Bonifacy IX przyznaje Pawłowi s. Nankera z Wierzchoniowa, kanonikowi krakowskiemu, łaskę, by w obliczu śmierci wybrany przez Pawła spowiednik mógł jeden raz udzielić mu mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -990,6 +1112,8 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1037,12 +1161,22 @@
           <t>"172v"</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1060,8 +1194,16 @@
           <t>+1394-01-06T00:00:00Z/11</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1072,6 +1214,8 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1089,8 +1233,16 @@
           <t>Q31</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1101,6 +1253,8 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1128,8 +1282,16 @@
           <t>Q386</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1138,6 +1300,8 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1167,6 +1331,8 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1196,6 +1362,8 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1241,6 +1409,8 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1270,6 +1440,8 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1299,6 +1471,8 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1328,6 +1502,8 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1357,6 +1533,8 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1374,8 +1552,16 @@
           <t>Q402</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1386,6 +1572,8 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1403,8 +1591,16 @@
           <t>Q406</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1415,6 +1611,8 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1432,8 +1630,16 @@
           <t>Q403</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1444,6 +1650,8 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1461,8 +1669,16 @@
           <t>"Papież Bonifacy IX przyznaje Lutce, żonie Krystyna z Zagórzyc, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1473,6 +1689,8 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1520,12 +1738,22 @@
           <t>"172v"</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1543,8 +1771,16 @@
           <t>+1394-01-04T00:00:00Z/11</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1555,6 +1791,8 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1572,8 +1810,16 @@
           <t>Q31</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1584,6 +1830,8 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1611,8 +1859,16 @@
           <t>Q386</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1621,6 +1877,8 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1650,6 +1908,8 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1679,6 +1939,8 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1708,6 +1970,8 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1737,6 +2001,8 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1782,6 +2048,8 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1811,6 +2079,8 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1840,6 +2110,8 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1869,6 +2141,8 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1898,6 +2172,8 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1927,6 +2203,8 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1944,8 +2222,16 @@
           <t>Q402</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -1956,6 +2242,8 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1973,8 +2261,16 @@
           <t>Q406</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -1985,6 +2281,8 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2002,8 +2300,16 @@
           <t>Q403</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -2014,6 +2320,8 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2031,8 +2339,16 @@
           <t>"Papież Bonifacy IX przyznaje Katarzynie, wdowie po Paszku z Kleparza, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -2043,6 +2359,8 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2090,12 +2408,22 @@
           <t>"172v"</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2113,8 +2441,16 @@
           <t>+1393-12-09T00:00:00Z/11</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -2125,6 +2461,8 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2142,8 +2480,16 @@
           <t>Q31</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2154,6 +2500,8 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2181,8 +2529,16 @@
           <t>Q385</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2191,6 +2547,8 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2220,6 +2578,8 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2249,6 +2609,8 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2294,6 +2656,8 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2323,6 +2687,8 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2352,6 +2718,8 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2381,6 +2749,8 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2410,6 +2780,8 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2439,6 +2811,8 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2456,8 +2830,16 @@
           <t>Q402</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -2468,6 +2850,8 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2485,8 +2869,16 @@
           <t>Q392</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -2497,6 +2889,8 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2514,8 +2908,16 @@
           <t>Q387</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
@@ -2526,6 +2928,8 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2543,8 +2947,16 @@
           <t>"Papież Bonifacy IX poleca kustoszowi gnieźnieńskiemu, by mocą władzy apostolskiej udzielił szlachetnemu Mikołajowi Pieniążkowi z Węchadłowa i Witowic ekspektatywy na kanonię łęczycką, pomimo że Mikołaj posiada już kanonię gnieźnieńską i archidiakonat łęczycki, a ponadto otrzymał niedawno papieskie ekspektatywy na prałaturę w kapitule łęczyckiej (pod warunkiem opuszczenia archidiakonatu w razie jej objęcia) oraz na kanonię krakowską, a dzisiaj otrzymał także papieską ekspektatywę na kanonię uniejowską."</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -2555,6 +2967,8 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2612,10 +3026,20 @@
           <t>"CCLVII-CCLVIII"</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2633,8 +3057,16 @@
           <t>+1389-11-13T00:00:00Z/11</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -2645,6 +3077,8 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2662,8 +3096,16 @@
           <t>Q31</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -2674,6 +3116,8 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2701,8 +3145,16 @@
           <t>Q385</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2711,6 +3163,8 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2738,8 +3192,16 @@
           <t>Q386</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2748,6 +3210,8 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2775,8 +3239,16 @@
           <t>Q386</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2785,6 +3257,8 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2814,6 +3288,8 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2843,6 +3319,8 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2872,6 +3350,8 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2901,6 +3381,8 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2930,6 +3412,8 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2975,6 +3459,8 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3004,6 +3490,8 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3033,6 +3521,8 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3062,6 +3552,8 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3091,6 +3583,8 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3120,6 +3614,8 @@
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3149,6 +3645,8 @@
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3178,6 +3676,8 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3207,6 +3707,8 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3236,6 +3738,8 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3265,6 +3769,8 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3294,6 +3800,8 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3311,8 +3819,16 @@
           <t>Q402</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
@@ -3323,6 +3839,8 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3340,8 +3858,16 @@
           <t>Q392</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
@@ -3352,6 +3878,8 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3369,8 +3897,16 @@
           <t>Q434</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
@@ -3381,6 +3917,8 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3398,8 +3936,16 @@
           <t>"Papież Bonifacy IX poleca oficjałowi naumburskiemu, by mocą władzy apostolskiej udzielił Mikołajowi Kalow, mistrzowi sztuk i bakałarzowi medycyny, ekspektatywy na kanonię większą w kapitule miśnieńskiej, pomimo że Mikołaj posiada już kanonię lubuską oraz kanonię w kolegiacie NMP w Wurzen."</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
@@ -3410,6 +3956,8 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3468,10 +4016,20 @@
           <t>"CCLVIII-CCLVIIII"</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3489,8 +4047,16 @@
           <t>+1389-11-13T00:00:00Z/11</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3501,6 +4067,8 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3518,8 +4086,16 @@
           <t>Q31</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
@@ -3530,6 +4106,8 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3557,8 +4135,16 @@
           <t>Q385</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3567,6 +4153,8 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3594,8 +4182,16 @@
           <t>Q386</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3604,6 +4200,8 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3633,6 +4231,8 @@
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3662,6 +4262,8 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3691,6 +4293,8 @@
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3720,6 +4324,8 @@
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3749,6 +4355,8 @@
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3778,6 +4386,8 @@
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3823,6 +4433,8 @@
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3860,6 +4472,8 @@
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3889,6 +4503,8 @@
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3918,6 +4534,8 @@
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3947,6 +4565,8 @@
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3976,6 +4596,8 @@
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4005,6 +4627,8 @@
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4034,6 +4658,8 @@
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4063,6 +4689,8 @@
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4092,6 +4720,8 @@
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -742,8 +742,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -773,8 +781,16 @@
           <t>"Margarete, relicte quondam Iohannis de Sitten civis Wratislauiensis"</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -824,8 +840,16 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -851,8 +875,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -882,8 +914,16 @@
           <t>Q442</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -913,8 +953,16 @@
           <t>Q443</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -944,8 +992,16 @@
           <t>Q30</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Q476</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -1319,8 +1375,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1350,8 +1414,16 @@
           <t>Q441</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1401,8 +1473,16 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1428,8 +1508,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1459,8 +1547,16 @@
           <t>Q441</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1490,8 +1586,16 @@
           <t>Q30</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1521,8 +1625,16 @@
           <t>Q149</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Q475</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1896,8 +2008,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -1927,8 +2047,16 @@
           <t>Q436</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1958,8 +2086,16 @@
           <t>Q436</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -1989,8 +2125,16 @@
           <t>"Luthke, dilecti filii Cristini de Zageizicze uxori, Cracouiensis diocesis"</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -2040,8 +2184,16 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2067,8 +2219,16 @@
           <t>Q372</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2098,8 +2258,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -2129,8 +2297,16 @@
           <t>Q436</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -2160,8 +2336,16 @@
           <t>Q437</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -2191,8 +2375,16 @@
           <t>Q30</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -2566,8 +2758,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -2597,8 +2797,16 @@
           <t>Q404</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2648,8 +2856,16 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -2675,8 +2891,16 @@
           <t>Q372</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -2706,8 +2930,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -2737,8 +2969,16 @@
           <t>Q404</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2768,8 +3008,16 @@
           <t>Q413</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -2799,8 +3047,16 @@
           <t>Q30</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -3276,8 +3532,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -3307,8 +3571,16 @@
           <t>Q391</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -3338,8 +3610,16 @@
           <t>Q393</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -3369,8 +3649,16 @@
           <t>Q394</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -3400,8 +3688,16 @@
           <t>"C(ancellaria)"</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -3451,8 +3747,16 @@
           <t>24</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -3478,8 +3782,16 @@
           <t>Q139</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
@@ -3509,8 +3821,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -3540,8 +3860,16 @@
           <t>Q393</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -3571,8 +3899,16 @@
           <t>Q30</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -3602,8 +3938,16 @@
           <t>Q391</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -3633,8 +3977,16 @@
           <t>Q142</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -3664,8 +4016,16 @@
           <t>Q394</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
@@ -3695,8 +4055,16 @@
           <t>Q118</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -3726,8 +4094,16 @@
           <t>Q398</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -3757,8 +4133,16 @@
           <t>Q149</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
@@ -3788,8 +4172,16 @@
           <t>Q146</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -4219,8 +4611,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
@@ -4250,8 +4650,16 @@
           <t>Q430</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -4281,8 +4689,16 @@
           <t>"Nicolaum Kalow, canonicum Lubucensem, qui, ut asserit, magister in artibus et bacallarius in medicina existit"</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
@@ -4312,8 +4728,16 @@
           <t>Q426</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
@@ -4343,8 +4767,16 @@
           <t>Q424</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
@@ -4374,8 +4806,16 @@
           <t>"C(ancellaria)"</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
@@ -4425,8 +4865,16 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
@@ -4491,8 +4939,16 @@
           <t>Q10</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
@@ -4522,8 +4978,16 @@
           <t>Q423</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -4553,8 +5017,16 @@
           <t>Q30</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -4584,8 +5056,16 @@
           <t>Q432</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -4615,8 +5095,16 @@
           <t>Q429</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
@@ -4646,8 +5134,16 @@
           <t>Q430</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -4677,8 +5173,16 @@
           <t>Q469</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
@@ -4708,8 +5212,16 @@
           <t>Q427</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,31 +862,39 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Q442</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>P56</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Q443</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Q476</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Q10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Q476</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -901,31 +909,39 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Q443</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>P33</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Q442</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Q476</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Q442</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Q476</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -950,7 +966,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q443</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -989,7 +1005,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q442</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1018,17 +1034,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q476</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q443</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1038,7 +1054,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q476</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1057,17 +1073,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q476</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1077,7 +1093,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q476</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1101,12 +1117,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1140,12 +1156,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Pawłowi s. Nankera z Wierzchoniowa, kanonikowi krakowskiemu, łaskę, by w obliczu śmierci wybrany przez Pawła spowiednik mógł jeden raz udzielić mu mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q406</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1179,54 +1195,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
+          <t>Q403</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Q401</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>"172v"</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
           <t>Q475</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1242,12 +1234,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>+1394-01-06T00:00:00Z/11</t>
+          <t>"Papież Bonifacy IX przyznaje Pawłowi s. Nankera z Wierzchoniowa, kanonikowi krakowskiemu, łaskę, by w obliczu śmierci wybrany przez Pawła spowiednik mógł jeden raz udzielić mu mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1281,30 +1273,54 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Q401</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>"172v"</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>Q475</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1320,34 +1336,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"BP 3, nr 354"</t>
+          <t>+1394-01-06T00:00:00Z/11</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
           <t>Q475</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1367,12 +1375,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1406,26 +1414,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q441</t>
+          <t>"BP 3, nr 354"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Q475</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1445,44 +1461,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to"</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
           <t>Q475</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1500,12 +1500,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q441</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1539,28 +1539,44 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q441</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>Q475</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1583,7 +1599,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1622,7 +1638,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Q149</t>
+          <t>Q441</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1651,17 +1667,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1671,7 +1687,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1690,17 +1706,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>Q149</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1710,7 +1726,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1729,17 +1745,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1749,7 +1765,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1768,17 +1784,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Lutce, żonie Krystyna z Zagórzyc, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q392</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1788,7 +1804,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1807,59 +1823,35 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
+          <t>Q434</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Q401</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>"172v"</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+          <t>Q470</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -1870,17 +1862,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>+1394-01-04T00:00:00Z/11</t>
+          <t>"Papież Bonifacy IX poleca oficjałowi naumburskiemu, by mocą władzy apostolskiej udzielił Mikołajowi Kalow, mistrzowi sztuk i bakałarzowi medycyny, ekspektatywy na kanonię większą w kapitule miśnieńskiej, pomimo że Mikołaj posiada już kanonię lubuską oraz kanonię w kolegiacie NMP w Wurzen."</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1890,7 +1882,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1909,37 +1901,70 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>"ASV, Reg. Lat., vol. 6, f. 258v-259v (or. f.
+                     CCLVIII-CCLVIIII)"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Q474</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Q382</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>"258v-259v"</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>"CCLVIII-CCLVIIII"</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -1948,39 +1973,31 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"BP 3, nr 353"</t>
+          <t>+1389-11-13T00:00:00Z/11</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+          <t>Q470</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1995,17 +2012,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2015,7 +2032,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2034,31 +2051,39 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>"MPV 8, nr 39"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Q474</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>Q385</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2073,31 +2098,39 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>"RG 2, nr 05764"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Q474</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2112,17 +2145,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Luthke, dilecti filii Cristini de Zageizicze uxori, Cracouiensis diocesis"</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2132,7 +2165,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2151,49 +2184,33 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q432</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+          <t>Q470</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2206,17 +2223,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q372</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2226,7 +2243,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2245,17 +2262,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P52</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q430</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2265,7 +2282,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2284,17 +2301,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>"Nicolaum Kalow, canonicum Lubucensem, qui, ut asserit, magister in artibus et bacallarius in medicina existit"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2304,7 +2321,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2323,17 +2340,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P42</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Q437</t>
+          <t>Q426</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2343,7 +2360,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -2362,17 +2379,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P42</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q424</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2382,7 +2399,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -2401,17 +2418,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>"C(ancellaria)"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2421,7 +2438,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2440,33 +2457,49 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>"N(icolaus). XXI. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Q400</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Q470</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -2479,17 +2512,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q432</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P29</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>Q416</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2499,7 +2532,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -2518,17 +2551,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Katarzynie, wdowie po Paszku z Kleparza, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2538,7 +2571,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2557,59 +2590,35 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Q401</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>"172v"</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+          <t>Q470</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -2620,17 +2629,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>+1393-12-09T00:00:00Z/11</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2640,7 +2649,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2659,17 +2668,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q432</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2679,7 +2688,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2698,39 +2707,31 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"BP 3, nr 349 (false sub data 9 XI 1393)"</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Q385</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+          <t>Q470</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2745,17 +2746,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q430</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2765,7 +2766,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2784,17 +2785,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q469</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2804,7 +2805,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2823,49 +2824,33 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+          <t>Q470</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -2878,17 +2863,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Q372</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2898,7 +2883,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -2917,17 +2902,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q406</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2937,7 +2922,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2956,17 +2941,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q403</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2976,7 +2961,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2995,17 +2980,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Q413</t>
+          <t>"Papież Bonifacy IX przyznaje Lutce, żonie Krystyna z Zagórzyc, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3015,7 +3000,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3034,35 +3019,59 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Q400</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Q401</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>"172v"</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -3073,17 +3082,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>+1394-01-04T00:00:00Z/11</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3093,7 +3102,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -3112,17 +3121,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Q392</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3132,7 +3141,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -3151,31 +3160,39 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Q387</t>
+          <t>"BP 3, nr 353"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3190,17 +3207,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX poleca kustoszowi gnieźnieńskiemu, by mocą władzy apostolskiej udzielił szlachetnemu Mikołajowi Pieniążkowi z Węchadłowa i Witowic ekspektatywy na kanonię łęczycką, pomimo że Mikołaj posiada już kanonię gnieźnieńską i archidiakonat łęczycki, a ponadto otrzymał niedawno papieskie ekspektatywy na prałaturę w kapitule łęczyckiej (pod warunkiem opuszczenia archidiakonatu w razie jej objęcia) oraz na kanonię krakowską, a dzisiaj otrzymał także papieską ekspektatywę na kanonię uniejowską."</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3210,7 +3227,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -3229,69 +3246,37 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 6, f. 257r-258v (or. f. CCLVII-CCLVIII)"</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Q382</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>"257r-258v"</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>"CCLVII-CCLVIII"</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
+          <t>Q474</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
@@ -3300,17 +3285,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>+1389-11-13T00:00:00Z/11</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3320,7 +3305,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -3339,17 +3324,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>"Luthke, dilecti filii Cristini de Zageizicze uxori, Cracouiensis diocesis"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3359,7 +3344,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -3378,41 +3363,49 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"MPV 8, nr 31"</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Q385</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P30</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -3425,27 +3418,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P56</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"BP 3, nr 111"</t>
+          <t>Q437</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Q386</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3455,7 +3448,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -3472,27 +3465,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q437</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P33</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"RG 2, nr 05985"</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Q386</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3502,7 +3495,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -3519,17 +3512,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q372</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3539,7 +3532,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -3558,17 +3551,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q391</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3578,7 +3571,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -3597,17 +3590,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Q393</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3617,7 +3610,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -3636,17 +3629,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>P52</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q394</t>
+          <t>Q437</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3656,7 +3649,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -3675,17 +3668,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"C(ancellaria)"</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3695,7 +3688,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -3714,49 +3707,33 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"N(icolaus). XXIIII. de Ben(even)to."</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
+          <t>Q400</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -3769,17 +3746,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Q394</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Q139</t>
+          <t>Q406</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3789,7 +3766,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3808,17 +3785,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q403</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3828,7 +3805,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -3847,17 +3824,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Q393</t>
+          <t>"Papież Bonifacy IX przyznaje Katarzynie, wdowie po Paszku z Kleparza, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3867,7 +3844,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -3886,35 +3863,59 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Q401</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>"172v"</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
@@ -3925,17 +3926,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Q391</t>
+          <t>+1393-12-09T00:00:00Z/11</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3945,7 +3946,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -3964,17 +3965,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q142</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3984,7 +3985,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -4003,31 +4004,39 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Q394</t>
+          <t>"BP 3, nr 349 (false sub data 9 XI 1393)"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+          <t>Q385</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -4042,17 +4051,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Q118</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4062,7 +4071,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -4081,17 +4090,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q398</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4101,7 +4110,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -4120,33 +4129,49 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Q149</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
@@ -4159,17 +4184,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P56</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q413</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4179,11 +4204,19 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+          <t>Q400</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4198,17 +4231,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q413</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P33</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4218,11 +4251,19 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Q470</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+          <t>Q400</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4237,17 +4278,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Q392</t>
+          <t>Q372</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4257,7 +4298,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -4276,17 +4317,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Q434</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4296,7 +4337,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -4315,17 +4356,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX poleca oficjałowi naumburskiemu, by mocą władzy apostolskiej udzielił Mikołajowi Kalow, mistrzowi sztuk i bakałarzowi medycyny, ekspektatywy na kanonię większą w kapitule miśnieńskiej, pomimo że Mikołaj posiada już kanonię lubuską oraz kanonię w kolegiacie NMP w Wurzen."</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4335,7 +4376,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -4354,70 +4395,37 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"ASV, Reg. Lat., vol. 6, f. 258v-259v (or. f.
-                     CCLVIII-CCLVIIII)"</t>
+          <t>Q413</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Q382</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>"258v-259v"</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>"CCLVIII-CCLVIIII"</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>Q470</t>
-        </is>
-      </c>
+          <t>Q400</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
@@ -4426,17 +4434,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>+1389-11-13T00:00:00Z/11</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4446,7 +4454,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -4465,17 +4473,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4485,7 +4493,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -4504,39 +4512,31 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"MPV 8, nr 39"</t>
+          <t>Q392</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Q385</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Q470</t>
-        </is>
-      </c>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4551,39 +4551,31 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"RG 2, nr 05764"</t>
+          <t>Q387</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Q470</t>
-        </is>
-      </c>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4598,17 +4590,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"Papież Bonifacy IX poleca kustoszowi gnieźnieńskiemu, by mocą władzy apostolskiej udzielił szlachetnemu Mikołajowi Pieniążkowi z Węchadłowa i Witowic ekspektatywy na kanonię łęczycką, pomimo że Mikołaj posiada już kanonię gnieźnieńską i archidiakonat łęczycki, a ponadto otrzymał niedawno papieskie ekspektatywy na prałaturę w kapitule łęczyckiej (pod warunkiem opuszczenia archidiakonatu w razie jej objęcia) oraz na kanonię krakowską, a dzisiaj otrzymał także papieską ekspektatywę na kanonię uniejowską."</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4618,7 +4610,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -4637,37 +4629,69 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P52</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>"AAV, Reg. Lat., vol. 6, f. 257r-258v (or. f. CCLVII-CCLVIII)"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Q470</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Q382</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>"257r-258v"</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>"CCLVII-CCLVIII"</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
@@ -4676,17 +4700,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Nicolaum Kalow, canonicum Lubucensem, qui, ut asserit, magister in artibus et bacallarius in medicina existit"</t>
+          <t>+1389-11-13T00:00:00Z/11</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4696,7 +4720,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -4715,17 +4739,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>P42</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Q426</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4735,7 +4759,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -4754,31 +4778,39 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>P42</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Q424</t>
+          <t>"MPV 8, nr 31"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Q470</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+          <t>Q385</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4793,31 +4825,39 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"C(ancellaria)"</t>
+          <t>"BP 3, nr 111"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Q470</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4832,49 +4872,41 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"N(icolaus). XXI. de Ben(even)to."</t>
+          <t>"RG 2, nr 05985"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q386</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>P30</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Q470</t>
-        </is>
-      </c>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
@@ -4887,17 +4919,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Q432</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>P29</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Q416</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4907,7 +4939,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -4926,17 +4958,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q391</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4946,7 +4978,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -4965,17 +4997,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4985,7 +5017,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -5004,17 +5036,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P52</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q394</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5024,7 +5056,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -5043,17 +5075,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Q432</t>
+          <t>"C(ancellaria)"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5063,7 +5095,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -5082,33 +5114,49 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>"N(icolaus). XXIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Q470</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
@@ -5121,17 +5169,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q394</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>Q139</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5141,7 +5189,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -5160,7 +5208,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5170,7 +5218,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Q469</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5180,7 +5228,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -5199,7 +5247,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5209,7 +5257,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Q427</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5219,7 +5267,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -5235,6 +5283,318 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Q391</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Q142</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Q394</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Q118</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Q398</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Q149</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Q146</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+1394-04-23T00:00:00Z/11</t>
+          <t>+1394-04-23T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+1394-01-06T00:00:00Z/11</t>
+          <t>+1394-01-06T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1589,17 +1589,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q441</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q149</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1628,12 +1628,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q149</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Q149</t>
+          <t>Q441</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1745,17 +1745,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1784,17 +1784,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q392</t>
+          <t>Q149</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1828,12 +1828,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q434</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1867,12 +1867,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX poleca oficjałowi naumburskiemu, by mocą władzy apostolskiej udzielił Mikołajowi Kalow, mistrzowi sztuk i bakałarzowi medycyny, ekspektatywy na kanonię większą w kapitule miśnieńskiej, pomimo że Mikołaj posiada już kanonię lubuską oraz kanonię w kolegiacie NMP w Wurzen."</t>
+          <t>Q392</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1906,65 +1906,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"ASV, Reg. Lat., vol. 6, f. 258v-259v (or. f.
-                     CCLVIII-CCLVIIII)"</t>
+          <t>Q434</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Q382</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>"258v-259v"</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>"CCLVIII-CCLVIIII"</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
           <t>Q470</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -1978,12 +1945,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>+1389-11-13T00:00:00Z/11</t>
+          <t>"Papież Bonifacy IX poleca oficjałowi naumburskiemu, by mocą władzy apostolskiej udzielił Mikołajowi Kalow, mistrzowi sztuk i bakałarzowi medycyny, ekspektatywy na kanonię większą w kapitule miśnieńskiej, pomimo że Mikołaj posiada już kanonię lubuską oraz kanonię w kolegiacie NMP w Wurzen."</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2017,32 +1984,65 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>"ASV, Reg. Lat., vol. 6, f. 258v-259v (or. f.
+                     CCLVIII-CCLVIIII)"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Q382</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>"258v-259v"</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>"CCLVIII-CCLVIIII"</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
           <t>Q470</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -2056,34 +2056,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"MPV 8, nr 39"</t>
+          <t>+1389-11-13T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Q385</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
           <t>Q470</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2103,34 +2095,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"RG 2, nr 05764"</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
           <t>Q470</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2150,26 +2134,34 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"MPV 8, nr 39"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>Q385</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Q470</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2189,26 +2181,34 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Q432</t>
+          <t>"RG 2, nr 05764"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Q470</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P52</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>Q432</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2301,17 +2301,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>Q470</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>Q423</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>P38</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>"Nicolaum Kalow, canonicum Lubucensem, qui, ut asserit, magister in artibus et bacallarius in medicina existit"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2340,17 +2340,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P42</t>
+          <t>P52</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Q426</t>
+          <t>Q430</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2384,12 +2384,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P42</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Q424</t>
+          <t>"Nicolaum Kalow, canonicum Lubucensem, qui, ut asserit, magister in artibus et bacallarius in medicina existit"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2418,17 +2418,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P42</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"C(ancellaria)"</t>
+          <t>Q426</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2457,49 +2457,33 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>Q423</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>P42</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Q424</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Q470</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>P34</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>"N(icolaus). XXI. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>P31</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Q470</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -2512,17 +2496,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Q432</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P29</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Q416</t>
+          <t>"C(ancellaria)"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2556,28 +2540,44 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"N(icolaus). XXI. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>Q470</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -2590,17 +2590,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2629,17 +2629,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2668,17 +2668,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Q432</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2707,17 +2707,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2746,17 +2746,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2785,17 +2785,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Q469</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2824,17 +2824,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Q427</t>
+          <t>Q430</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2863,17 +2863,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q430</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P28</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -2902,17 +2902,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q432</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P29</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>Q416</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2941,17 +2941,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2980,17 +2980,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Lutce, żonie Krystyna z Zagórzyc, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3019,59 +3019,35 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Q401</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>"172v"</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+          <t>Q470</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -3082,17 +3058,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>+1394-01-04T00:00:00Z/11</t>
+          <t>Q432</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3102,7 +3078,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -3121,17 +3097,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3141,7 +3117,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -3160,39 +3136,31 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"BP 3, nr 353"</t>
+          <t>Q430</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+          <t>Q470</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3207,17 +3175,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q469</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3227,7 +3195,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -3246,17 +3214,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3266,7 +3234,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -3290,12 +3258,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3324,17 +3292,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Luthke, dilecti filii Cristini de Zageizicze uxori, Cracouiensis diocesis"</t>
+          <t>Q406</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3368,44 +3336,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q403</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
           <t>Q474</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -3418,17 +3370,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>P56</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Q437</t>
+          <t>"Papież Bonifacy IX przyznaje Lutce, żonie Krystyna z Zagórzyc, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3441,16 +3393,8 @@
           <t>Q474</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3465,43 +3409,59 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Q437</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>P33</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Q401</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>"172v"</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
           <t>Q474</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -3512,17 +3472,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Q372</t>
+          <t>+1394-01-04T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3556,12 +3516,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3595,26 +3555,34 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>"BP 3, nr 353"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>Q474</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3634,12 +3602,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q437</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3673,12 +3641,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3707,17 +3675,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3727,7 +3695,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -3746,17 +3714,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>"Luthke, dilecti filii Cristini de Zageizicze uxori, Cracouiensis diocesis"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3766,7 +3734,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3785,33 +3753,49 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Q400</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -3824,17 +3808,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P56</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Katarzynie, wdowie po Paszku z Kleparza, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q437</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3844,11 +3828,19 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Q400</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+          <t>Q474</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Q474</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3863,59 +3855,43 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q437</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P33</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Q388</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Q401</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>"172v"</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+          <t>Q474</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
@@ -3926,17 +3902,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>+1393-12-09T00:00:00Z/11</t>
+          <t>Q372</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3946,7 +3922,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -3965,17 +3941,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3985,7 +3961,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -4004,39 +3980,31 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"BP 3, nr 349 (false sub data 9 XI 1393)"</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Q385</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+          <t>Q474</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -4051,17 +4019,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q437</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4071,7 +4039,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -4090,17 +4058,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4110,7 +4078,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -4134,44 +4102,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
           <t>Q400</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
@@ -4184,17 +4136,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>P56</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Q413</t>
+          <t>Q406</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4207,16 +4159,8 @@
           <t>Q400</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4231,17 +4175,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q413</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>P33</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q403</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4254,16 +4198,8 @@
           <t>Q400</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4278,17 +4214,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Q372</t>
+          <t>"Papież Bonifacy IX przyznaje Katarzynie, wdowie po Paszku z Kleparza, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4322,30 +4258,54 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Q401</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>"172v"</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
           <t>Q400</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
@@ -4361,12 +4321,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>+1393-12-09T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4400,12 +4360,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Q413</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4439,26 +4399,34 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>"BP 3, nr 349 (false sub data 9 XI 1393)"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>Q385</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>Q400</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4473,17 +4441,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4493,7 +4461,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -4512,17 +4480,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Q392</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4532,7 +4500,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -4551,33 +4519,49 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Q387</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -4590,17 +4574,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P56</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX poleca kustoszowi gnieźnieńskiemu, by mocą władzy apostolskiej udzielił szlachetnemu Mikołajowi Pieniążkowi z Węchadłowa i Witowic ekspektatywy na kanonię łęczycką, pomimo że Mikołaj posiada już kanonię gnieźnieńską i archidiakonat łęczycki, a ponadto otrzymał niedawno papieskie ekspektatywy na prałaturę w kapitule łęczyckiej (pod warunkiem opuszczenia archidiakonatu w razie jej objęcia) oraz na kanonię krakowską, a dzisiaj otrzymał także papieską ekspektatywę na kanonię uniejowską."</t>
+          <t>Q413</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4610,11 +4594,19 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+          <t>Q400</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Q400</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4629,69 +4621,45 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q413</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P33</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 6, f. 257r-258v (or. f. CCLVII-CCLVIII)"</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Q388</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Q382</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>"257r-258v"</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>"CCLVII-CCLVIII"</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
+          <t>Q400</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
@@ -4700,17 +4668,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>+1389-11-13T00:00:00Z/11</t>
+          <t>Q372</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4720,7 +4688,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -4739,17 +4707,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4759,7 +4727,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -4778,39 +4746,31 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"MPV 8, nr 31"</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Q385</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
+          <t>Q400</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4825,39 +4785,31 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"BP 3, nr 111"</t>
+          <t>Q413</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
+          <t>Q400</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4872,39 +4824,31 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"RG 2, nr 05985"</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
+          <t>Q400</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4924,12 +4868,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4963,12 +4907,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Q391</t>
+          <t>Q392</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5002,12 +4946,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Q393</t>
+          <t>Q387</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5041,12 +4985,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>P52</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Q394</t>
+          <t>"Papież Bonifacy IX poleca kustoszowi gnieźnieńskiemu, by mocą władzy apostolskiej udzielił szlachetnemu Mikołajowi Pieniążkowi z Węchadłowa i Witowic ekspektatywy na kanonię łęczycką, pomimo że Mikołaj posiada już kanonię gnieźnieńską i archidiakonat łęczycki, a ponadto otrzymał niedawno papieskie ekspektatywy na prałaturę w kapitule łęczyckiej (pod warunkiem opuszczenia archidiakonatu w razie jej objęcia) oraz na kanonię krakowską, a dzisiaj otrzymał także papieską ekspektatywę na kanonię uniejowską."</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5080,32 +5024,64 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"C(ancellaria)"</t>
+          <t>"AAV, Reg. Lat., vol. 6, f. 257r-258v (or. f. CCLVII-CCLVIII)"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Q382</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>"257r-258v"</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>"CCLVII-CCLVIII"</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
           <t>Q381</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
@@ -5119,44 +5095,28 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"N(icolaus). XXIIII. de Ben(even)to."</t>
+          <t>+1389-11-13T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
           <t>Q381</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
@@ -5169,17 +5129,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Q394</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Q139</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5213,26 +5173,34 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"MPV 8, nr 31"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
+          <t>Q385</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
           <t>Q381</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -5252,26 +5220,34 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Q393</t>
+          <t>"BP 3, nr 111"</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
           <t>Q381</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -5291,26 +5267,34 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>"RG 2, nr 05985"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>Q381</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5330,12 +5314,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Q391</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5369,12 +5353,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Q142</t>
+          <t>Q391</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5408,12 +5392,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Q394</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5447,12 +5431,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P52</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Q118</t>
+          <t>Q394</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5486,12 +5470,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Q398</t>
+          <t>"C(ancellaria)"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5525,28 +5509,44 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Q149</t>
+          <t>"N(icolaus). XXIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
           <t>Q381</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
@@ -5559,17 +5559,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5595,6 +5595,474 @@
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Q142</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>P35</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Q393</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Q394</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Q139</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Q393</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Q391</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Q142</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Q394</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Q118</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Q398</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Q149</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Q146</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q135"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,17 +768,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Q476</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Q442</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>P38</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>"Margarete, relicte quondam Iohannis de Sitten civis Wratislauiensis"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -812,44 +812,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q442</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
           <t>Q476</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -867,12 +851,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P56</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q443</t>
+          <t>"Margarete, relicte quondam Iohannis de Sitten civis Wratislauiensis"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -885,16 +869,8 @@
           <t>Q476</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Q476</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -909,41 +885,49 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q443</t>
+          <t>Q476</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P33</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q442</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>Q476</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Q476</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -956,17 +940,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q442</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P56</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q443</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -995,12 +979,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q443</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1044,7 +1028,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q443</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1083,7 +1067,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q442</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1112,17 +1096,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q476</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q443</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1132,7 +1116,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q476</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1151,17 +1135,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q476</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1171,7 +1155,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q476</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1195,12 +1179,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1234,12 +1218,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Pawłowi s. Nankera z Wierzchoniowa, kanonikowi krakowskiemu, łaskę, by w obliczu śmierci wybrany przez Pawła spowiednik mógł jeden raz udzielić mu mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q406</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1273,54 +1257,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
+          <t>Q403</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Q401</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>"172v"</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
           <t>Q475</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1336,12 +1296,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+1394-01-06T00:00:00Z/11/J</t>
+          <t>"Papież Bonifacy IX przyznaje Pawłowi s. Nankera z Wierzchoniowa, kanonikowi krakowskiemu, łaskę, by w obliczu śmierci wybrany przez Pawła spowiednik mógł jeden raz udzielić mu mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1375,30 +1335,54 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Q401</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>"172v"</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>Q475</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1414,34 +1398,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"BP 3, nr 354"</t>
+          <t>+1394-01-06T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
           <t>Q475</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1461,12 +1437,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1500,26 +1476,34 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q441</t>
+          <t>"BP 3, nr 354"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Q475</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1539,44 +1523,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to"</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
           <t>Q475</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1589,17 +1557,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Q475</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Q441</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>P53</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Q149</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1628,12 +1596,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q149</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1667,17 +1635,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q441</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"Paulo Nankeri, canonico Cracouiensi"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1711,28 +1679,44 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Q441</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>Q475</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -1745,17 +1729,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q441</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q149</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1784,17 +1768,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q149</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q149</t>
+          <t>Q441</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1823,17 +1807,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1843,7 +1827,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1862,17 +1846,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Q392</t>
+          <t>Q441</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1882,7 +1866,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1901,17 +1885,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Q434</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1921,7 +1905,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1940,17 +1924,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX poleca oficjałowi naumburskiemu, by mocą władzy apostolskiej udzielił Mikołajowi Kalow, mistrzowi sztuk i bakałarzowi medycyny, ekspektatywy na kanonię większą w kapitule miśnieńskiej, pomimo że Mikołaj posiada już kanonię lubuską oraz kanonię w kolegiacie NMP w Wurzen."</t>
+          <t>Q149</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1960,7 +1944,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q475</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -1984,65 +1968,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"ASV, Reg. Lat., vol. 6, f. 258v-259v (or. f.
-                     CCLVIII-CCLVIIII)"</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Q382</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>"258v-259v"</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>"CCLVIII-CCLVIIII"</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
           <t>Q470</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -2056,12 +2007,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>+1389-11-13T00:00:00Z/11/J</t>
+          <t>Q392</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2095,12 +2046,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q434</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2134,34 +2085,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"MPV 8, nr 39"</t>
+          <t>"Papież Bonifacy IX poleca oficjałowi naumburskiemu, by mocą władzy apostolskiej udzielił Mikołajowi Kalow, mistrzowi sztuk i bakałarzowi medycyny, ekspektatywy na kanonię większą w kapitule miśnieńskiej, pomimo że Mikołaj posiada już kanonię lubuską oraz kanonię w kolegiacie NMP w Wurzen."</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Q385</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
           <t>Q470</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2181,40 +2124,64 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"RG 2, nr 05764"</t>
+          <t>"ASV, Reg. Lat., vol. 6, f. 258v-259v (or. f. CCLVIII-CCLVIIII)"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Q386</t>
+          <t>Q388</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>Q382</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>"258v-259v"</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>"CCLVIII-CCLVIIII"</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
           <t>Q470</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
@@ -2228,12 +2195,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>+1389-11-13T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2267,12 +2234,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q432</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2306,26 +2273,34 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>"MPV 8, nr 39"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>Q385</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Q470</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2345,26 +2320,34 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P52</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>"RG 2, nr 05764"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Q470</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2379,17 +2362,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Nicolaum Kalow, canonicum Lubucensem, qui, ut asserit, magister in artibus et bacallarius in medicina existit"</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2418,17 +2401,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>P42</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Q426</t>
+          <t>Q432</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2457,17 +2440,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>Q470</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Q423</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>P42</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Q424</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2501,12 +2484,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P52</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"C(ancellaria)"</t>
+          <t>Q430</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2535,49 +2518,33 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>Q423</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>P38</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>"Nicolaum Kalow, canonicum Lubucensem, qui, ut asserit, magister in artibus et bacallarius in medicina existit"</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Q470</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>P34</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>"N(icolaus). XXI. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>P31</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Q470</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -2595,12 +2562,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P42</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>Q426</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2629,17 +2596,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P42</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q424</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2668,17 +2635,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>"C(ancellaria)"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2707,33 +2674,49 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>"N(icolaus). XXI. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>Q470</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
@@ -2756,7 +2739,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Q427</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2785,7 +2768,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Q427</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2829,12 +2812,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>P54</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2863,12 +2846,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>P28</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2902,17 +2885,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Q432</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>P29</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Q416</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2941,17 +2924,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2980,17 +2963,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q430</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3019,17 +3002,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q430</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P28</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3058,17 +3041,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q432</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P29</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Q432</t>
+          <t>Q416</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3107,7 +3090,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3146,7 +3129,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>Q423</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3185,7 +3168,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q469</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3224,7 +3207,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Q427</t>
+          <t>Q432</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3253,17 +3236,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3273,7 +3256,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -3292,17 +3275,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>Q430</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3312,7 +3295,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -3331,17 +3314,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>Q469</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3351,7 +3334,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3370,17 +3353,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Lutce, żonie Krystyna z Zagórzyc, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3390,7 +3373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q470</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -3414,54 +3397,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Q401</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>"172v"</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
           <t>Q474</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -3477,12 +3436,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>+1394-01-04T00:00:00Z/11/J</t>
+          <t>Q406</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3516,12 +3475,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q403</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3555,34 +3514,26 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"BP 3, nr 353"</t>
+          <t>"Papież Bonifacy IX przyznaje Lutce, żonie Krystyna z Zagórzyc, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
           <t>Q474</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3602,30 +3553,54 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Q401</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>"172v"</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
           <t>Q474</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -3641,12 +3616,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>+1394-01-04T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3680,12 +3655,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3714,31 +3689,39 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Luthke, dilecti filii Cristini de Zageizicze uxori, Cracouiensis diocesis"</t>
+          <t>"BP 3, nr 353"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>Q474</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3758,44 +3741,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
           <t>Q474</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -3808,19 +3775,19 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>Q474</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>Q436</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>P56</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Q437</t>
-        </is>
-      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>S51</t>
@@ -3831,16 +3798,8 @@
           <t>Q474</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3855,12 +3814,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q437</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>P33</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3878,16 +3837,8 @@
           <t>Q474</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3907,12 +3858,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Q372</t>
+          <t>"Luthke, dilecti filii Cristini de Zageizicze uxori, Cracouiensis diocesis"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3946,28 +3897,44 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>Q474</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
@@ -3980,17 +3947,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P56</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q437</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4019,17 +3986,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q437</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P33</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Q437</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4058,17 +4025,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q372</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4097,17 +4064,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4117,7 +4084,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -4136,17 +4103,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>Q436</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4156,7 +4123,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -4175,17 +4142,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>Q437</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4195,7 +4162,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -4214,17 +4181,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Katarzynie, wdowie po Paszku z Kleparza, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4234,7 +4201,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q474</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -4258,54 +4225,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Q401</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>"172v"</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
           <t>Q400</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
@@ -4321,12 +4264,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>+1393-12-09T00:00:00Z/11/J</t>
+          <t>Q406</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4360,12 +4303,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q403</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4399,34 +4342,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"BP 3, nr 349 (false sub data 9 XI 1393)"</t>
+          <t>"Papież Bonifacy IX przyznaje Katarzynie, wdowie po Paszku z Kleparza, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Q385</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
           <t>Q400</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4446,30 +4381,54 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Q401</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>"172v"</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
           <t>Q400</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
@@ -4485,12 +4444,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>+1393-12-09T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4524,44 +4483,28 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
           <t>Q400</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -4574,27 +4517,27 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>P56</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Q413</t>
+          <t>"BP 3, nr 349 (false sub data 9 XI 1393)"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q385</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4621,17 +4564,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q413</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P33</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4644,16 +4587,8 @@
           <t>Q400</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4668,17 +4603,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>Q400</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>Q404</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Q372</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4712,12 +4647,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4746,17 +4681,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>"Katherine, relicte quondam Peszkonis dicti de Florencia laici, vidue Cracouiensis diocesis"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4790,28 +4725,44 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Q413</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
           <t>Q400</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
@@ -4824,17 +4775,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P56</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q413</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4863,17 +4814,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q413</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P33</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4883,7 +4834,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -4902,17 +4853,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Q392</t>
+          <t>Q372</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4922,7 +4873,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -4941,17 +4892,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Q387</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4961,7 +4912,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -4980,17 +4931,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX poleca kustoszowi gnieźnieńskiemu, by mocą władzy apostolskiej udzielił szlachetnemu Mikołajowi Pieniążkowi z Węchadłowa i Witowic ekspektatywy na kanonię łęczycką, pomimo że Mikołaj posiada już kanonię gnieźnieńską i archidiakonat łęczycki, a ponadto otrzymał niedawno papieskie ekspektatywy na prałaturę w kapitule łęczyckiej (pod warunkiem opuszczenia archidiakonatu w razie jej objęcia) oraz na kanonię krakowską, a dzisiaj otrzymał także papieską ekspektatywę na kanonię uniejowską."</t>
+          <t>Q404</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5000,7 +4951,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -5019,69 +4970,37 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 6, f. 257r-258v (or. f. CCLVII-CCLVIII)"</t>
+          <t>Q413</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Q382</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>"257r-258v"</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>"CCLVII-CCLVIII"</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
+          <t>Q400</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
@@ -5090,17 +5009,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>+1389-11-13T00:00:00Z/11/J</t>
+          <t>Q30</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5110,7 +5029,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q400</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -5134,12 +5053,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q402</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5173,34 +5092,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"MPV 8, nr 31"</t>
+          <t>Q392</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Q385</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
           <t>Q381</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -5220,34 +5131,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"BP 3, nr 111"</t>
+          <t>Q387</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
           <t>Q381</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -5267,34 +5170,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"RG 2, nr 05985"</t>
+          <t>"Papież Bonifacy IX poleca kustoszowi gnieźnieńskiemu, by mocą władzy apostolskiej udzielił szlachetnemu Mikołajowi Pieniążkowi z Węchadłowa i Witowic ekspektatywy na kanonię łęczycką, pomimo że Mikołaj posiada już kanonię gnieźnieńską i archidiakonat łęczycki, a ponadto otrzymał niedawno papieskie ekspektatywy na prałaturę w kapitule łęczyckiej (pod warunkiem opuszczenia archidiakonatu w razie jej objęcia) oraz na kanonię krakowską, a dzisiaj otrzymał także papieską ekspektatywę na kanonię uniejowską."</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
           <t>Q381</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5314,32 +5209,64 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"AAV, Reg. Lat., vol. 6, f. 257r-258v (or. f. CCLVII-CCLVIII)"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
+          <t>Q388</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Q382</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>"257r-258v"</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>"CCLVII-CCLVIII"</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
           <t>Q381</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
@@ -5353,12 +5280,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Q391</t>
+          <t>+1389-11-13T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5392,12 +5319,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Q393</t>
+          <t>Q31</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5431,26 +5358,34 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>P52</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Q394</t>
+          <t>"MPV 8, nr 31"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
+          <t>Q385</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
           <t>Q381</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5470,26 +5405,34 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"C(ancellaria)"</t>
+          <t>"BP 3, nr 111"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
+          <t>Q386</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
           <t>Q381</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5509,44 +5452,36 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"N(icolaus). XXIIII. de Ben(even)to."</t>
+          <t>"RG 2, nr 05985"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q386</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>P30</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
           <t>Q381</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
@@ -5559,17 +5494,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Q393</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Q142</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5598,17 +5533,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Q142</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Q393</t>
+          <t>Q391</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5637,17 +5572,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Q394</t>
+          <t>Q381</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Q139</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5681,12 +5616,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P52</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q394</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5720,12 +5655,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Q393</t>
+          <t>"C(ancellaria)"</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5759,28 +5694,44 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>"N(icolaus). XXIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>P31</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
           <t>Q30</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>Q381</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
@@ -5793,17 +5744,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Q391</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5832,17 +5783,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Q142</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5871,17 +5822,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Q394</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5910,17 +5861,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Q118</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5949,12 +5900,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5988,17 +5939,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q398</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Q149</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6027,17 +5978,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q393</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q394</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6063,6 +6014,669 @@
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
     </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Q394</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>P28</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Q393</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Q393</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>P54</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Q149</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Q149</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>P28</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Q393</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Q393</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>P54</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Q146</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Q146</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>P28</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Q393</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Q391</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>P29</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Q416</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Q394</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Q139</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Q393</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Q391</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Q142</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Q394</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Q118</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Q398</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Q149</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>P27</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Q146</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Q381</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q135"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,27 +424,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>Q428</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -463,27 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>Q352</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -502,27 +502,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Małgorzacie, wdowie po mieszczaninie wrocławskim Johannesie von Sitten, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>"Papież Bonifacy IX przyznaje Hilli, żonie Bernarda z Anhausen, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -541,57 +541,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 185v"</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 178r et 213r (cancellata)"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Q388</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Q401</t>
+          <t>Q116</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>"185v"</t>
+          <t>"178r et 213r (cancellata)"</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -604,27 +604,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+1394-04-23T00:00:00Z/11/J</t>
+          <t>+1394-03-13T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -643,27 +643,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>va-Q67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -682,37 +682,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>"RG 2, col. 528, nr 03414"</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>P17</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>"MVB 5, nr 759"</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>P18</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Q386</t>
+          <t>Q425</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -729,27 +729,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -768,33 +768,49 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q442</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Margarete, relicte quondam Iohannis de Sitten civis Wratislauiensis"</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Q476</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -807,49 +823,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q89</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Q476</t>
-        </is>
-      </c>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -862,39 +862,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q442</t>
+          <t>Q89</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P56</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q443</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Q476</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Q476</t>
-        </is>
-      </c>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -909,39 +901,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q443</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P33</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q442</t>
+          <t>Q93</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Q476</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Q476</t>
-        </is>
-      </c>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -956,27 +940,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -995,27 +979,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q442</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1034,27 +1018,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q443</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1073,27 +1057,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Q476</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1112,27 +1096,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q89</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1151,27 +1135,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q89</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1190,27 +1174,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1229,27 +1213,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Pawłowi s. Nankera z Wierzchoniowa, kanonikowi krakowskiemu, łaskę, by w obliczu śmierci wybrany przez Pawła spowiednik mógł jeden raz udzielić mu mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1268,59 +1252,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
+          <t>Q263</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Q401</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>"172v"</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Q475</t>
-        </is>
-      </c>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1331,27 +1291,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>+1394-01-06T00:00:00Z/11/J</t>
+          <t>Q428</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1370,27 +1330,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q352</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1409,39 +1369,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"BP 3, nr 354"</t>
+          <t>"Papież Bonifacy IX przyznaje mieszczaninowi legnickiemu Mikołajowi Ungeraten łaskę, by w obliczu śmierci wybrany przez Mikołaja spowiednik mógł jeden raz udzielić mu mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Q475</t>
-        </is>
-      </c>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1456,35 +1408,59 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 188r et f. 188v (cancellata)"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Q475</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+          <t>Q427</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Q116</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>"188v (cancellata)"</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1495,27 +1471,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q441</t>
+          <t>+1394-06-09T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1534,49 +1510,33 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to"</t>
+          <t>va-Q67</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Q475</t>
-        </is>
-      </c>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1589,31 +1549,39 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q441</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Q149</t>
+          <t>"MVB 5, nr 776; RG 2, nr 06083"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Q475</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1628,27 +1596,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q149</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Q441</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1667,33 +1635,49 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Q475</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1706,27 +1690,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q105</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Q441</t>
+          <t>Q274</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1745,27 +1729,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q105</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q256</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1784,27 +1768,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q149</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Q475</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1823,27 +1807,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1862,7 +1846,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1872,17 +1856,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Q392</t>
+          <t>Q105</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1901,27 +1885,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q105</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Q434</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1940,27 +1924,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX poleca oficjałowi naumburskiemu, by mocą władzy apostolskiej udzielił Mikołajowi Kalow, mistrzowi sztuk i bakałarzowi medycyny, ekspektatywy na kanonię większą w kapitule miśnieńskiej, pomimo że Mikołaj posiada już kanonię lubuską oraz kanonię w kolegiacie NMP w Wurzen."</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -1979,70 +1963,37 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"ASV, Reg. Lat., vol. 6, f. 258v-259v (or. f.
-                     CCLVIII-CCLVIIII)"</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Q382</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>"258v-259v"</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>"CCLVIII-CCLVIIII"</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Q470</t>
-        </is>
-      </c>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -2051,27 +2002,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>+1389-11-13T00:00:00Z/11/J</t>
+          <t>Q263</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2090,27 +2041,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q428</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2129,39 +2080,31 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"MPV 8, nr 39"</t>
+          <t>Q352</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Q385</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Q470</t>
-        </is>
-      </c>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2176,39 +2119,31 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"RG 2, nr 05764"</t>
+          <t>"Papież Bonifacy IX przyznaje Mikołajowi z Bolesławca i jego żonie Weronice, mieszczanom wrocławskim, łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Q470</t>
-        </is>
-      </c>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2223,35 +2158,59 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 191r"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Q470</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+          <t>Q427</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Q116</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>"191r"</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -2262,27 +2221,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q432</t>
+          <t>+1394-06-22T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2301,27 +2260,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>va-Q67</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2340,31 +2299,39 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P52</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>"MVB 5, nr 780; RG 2, nr 05749"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Q470</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2379,27 +2346,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Nicolaum Kalow, canonicum Lubucensem, qui, ut asserit, magister in artibus et bacallarius in medicina existit"</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -2418,33 +2385,49 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>P42</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Q426</t>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Q470</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2457,27 +2440,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P42</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Q424</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2496,27 +2479,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"C(ancellaria)"</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -2535,49 +2518,33 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"N(icolaus). XXI. de Ben(even)to."</t>
+          <t>Q254</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Q470</t>
-        </is>
-      </c>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -2590,27 +2557,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>Q254</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -2629,27 +2596,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2668,27 +2635,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2707,27 +2674,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2746,27 +2713,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Q427</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2785,27 +2752,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Q427</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2824,27 +2791,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>P54</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2863,27 +2830,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>P28</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -2902,27 +2869,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Q432</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>P29</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Q416</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2941,27 +2908,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q263</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2980,27 +2947,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Q423</t>
+          <t>Q428</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3019,27 +2986,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q352</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -3058,27 +3025,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Q432</t>
+          <t>"Papież Bonifacy IX przyznaje szlachetnej Elżbiecie, wdowie po Piotrze z Prochowic (Parchwic), łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -3097,35 +3064,59 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Q429</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 189r"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Q470</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+          <t>Q427</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Q116</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>"189r"</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -3136,27 +3127,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Q430</t>
+          <t>+1394-06-15T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -3175,27 +3166,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q469</t>
+          <t>va-Q67</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -3214,31 +3205,39 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Q470</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Q427</t>
+          <t>"MVB 5, nr 778; RG 2, nr 01599"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Q470</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3253,27 +3252,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -3292,33 +3291,49 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Q474</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -3331,27 +3346,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q109</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3370,27 +3385,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Lutce, żonie Krystyna z Zagórzyc, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q109</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -3409,59 +3424,35 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P32</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
+          <t>Q327</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Q401</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>"172v"</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -3472,27 +3463,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q327</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P40</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>+1394-01-04T00:00:00Z/11/J</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -3511,27 +3502,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q109</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>Q108</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -3550,39 +3541,31 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"BP 3, nr 353"</t>
+          <t>Q108</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3597,27 +3580,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q256</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -3636,27 +3619,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -3675,27 +3658,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -3714,27 +3697,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Luthke, dilecti filii Cristini de Zageizicze uxori, Cracouiensis diocesis"</t>
+          <t>Q109</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3753,49 +3736,33 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q109</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -3808,39 +3775,31 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>P56</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Q437</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Q474</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3855,39 +3814,31 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q437</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>P33</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Q474</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Q474</t>
-        </is>
-      </c>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3902,27 +3853,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Q372</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -3941,27 +3892,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -3980,27 +3931,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Q436</t>
+          <t>Q327</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -4019,27 +3970,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q327</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Q437</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -4058,27 +4009,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q263</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Q474</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -4097,27 +4048,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q428</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -4136,27 +4087,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Q406</t>
+          <t>Q352</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -4175,27 +4126,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q403</t>
+          <t>"Papież Bonifacy IX przyznaje Janowi Scalerowi i jego żonie Dorocie, mieszczanom krakowskim, łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -4214,35 +4165,59 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>"AAV, Reg. Lat., vol. 34, f. 194r"</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>"Papież Bonifacy IX przyznaje Katarzynie, wdowie po Paszku z Kleparza, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Q400</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+          <t>Q427</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Q116</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>"194r"</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -4253,59 +4228,35 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 172v"</t>
+          <t>+1394-08-04T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Q401</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>"172v"</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
@@ -4316,27 +4267,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>+1393-12-09T00:00:00Z/11/J</t>
+          <t>va-Q67</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -4355,31 +4306,39 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Q31</t>
+          <t>"BP 3, nr 376"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Q400</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4394,39 +4353,31 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"BP 3, nr 349 (false sub data 9 XI 1393)"</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Q385</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4441,33 +4392,49 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>P22</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Q10</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Q400</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
@@ -4480,27 +4447,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q111</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q110</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -4519,49 +4486,33 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q110</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q111</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -4574,39 +4525,31 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q110</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>P56</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Q413</t>
+          <t>Q260</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Q400</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4621,39 +4564,31 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q413</t>
+          <t>Q111</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P33</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q260</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Q400</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Q400</t>
-        </is>
-      </c>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4668,27 +4603,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Q372</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -4707,27 +4642,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -4746,27 +4681,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Q404</t>
+          <t>Q110</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -4785,27 +4720,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q110</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Q413</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -4824,27 +4759,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Q30</t>
+          <t>Q111</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Q400</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -4863,27 +4798,27 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q111</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Q402</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -4902,7 +4837,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4912,17 +4847,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Q392</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -4941,27 +4876,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Q387</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Q381</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -4977,1092 +4912,6 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>"Papież Bonifacy IX poleca kustoszowi gnieźnieńskiemu, by mocą władzy apostolskiej udzielił szlachetnemu Mikołajowi Pieniążkowi z Węchadłowa i Witowic ekspektatywy na kanonię łęczycką, pomimo że Mikołaj posiada już kanonię gnieźnieńską i archidiakonat łęczycki, a ponadto otrzymał niedawno papieskie ekspektatywy na prałaturę w kapitule łęczyckiej (pod warunkiem opuszczenia archidiakonatu w razie jej objęcia) oraz na kanonię krakowską, a dzisiaj otrzymał także papieską ekspektatywę na kanonię uniejowską."</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>"AAV, Reg. Lat., vol. 6, f. 257r-258v (or. f. CCLVII-CCLVIII)"</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>P20</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Q388</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Q382</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>"257r-258v"</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>"CCLVII-CCLVIII"</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>+1389-11-13T00:00:00Z/11/J</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Q31</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>"MPV 8, nr 31"</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>P18</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Q385</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>"BP 3, nr 111"</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>P18</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>"RG 2, nr 05985"</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>P18</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Q386</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Q10</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Q391</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>P25</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Q393</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>P52</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Q394</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>P34</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>"C(ancellaria)"</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>P34</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>"N(icolaus). XXIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>P31</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>P30</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Q393</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>P53</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Q142</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Q142</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>P35</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Q393</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Q394</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Q139</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Q10</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Q393</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Q391</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Q142</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Q394</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Q118</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Q398</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Q149</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>P27</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Q146</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>S51</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Q381</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>va-Q67</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>va-Q67</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>va-Q67</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>va-Q67</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>va-Q67</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,44 +773,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
           <t>Q1</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -823,17 +807,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>P20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Q91</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Q89</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -862,17 +846,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q89</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>"Hille, dilecti filii Bernardi de Ahusen uxori, Warmiensis diocesis"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -901,33 +885,49 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q93</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -940,17 +940,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q89</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -979,17 +979,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q89</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1018,17 +1018,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>Q93</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1057,17 +1057,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1096,17 +1096,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Q1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>P24</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Q89</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1135,17 +1135,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q89</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q91</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1174,17 +1174,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Q91</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Q1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>P24</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Q66</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1213,17 +1213,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q89</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1252,17 +1252,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q89</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q263</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1291,17 +1291,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q428</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1330,17 +1330,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q352</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1374,12 +1374,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje mieszczaninowi legnickiemu Mikołajowi Ungeraten łaskę, by w obliczu śmierci wybrany przez Mikołaja spowiednik mógł jeden raz udzielić mu mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q263</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1413,54 +1413,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 188r et f. 188v (cancellata)"</t>
+          <t>Q428</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Q427</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Q116</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>"188v (cancellata)"</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
           <t>Q2</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1476,12 +1452,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>+1394-06-09T00:00:00Z/11/J</t>
+          <t>Q352</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1515,12 +1491,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q67</t>
+          <t>"Papież Bonifacy IX przyznaje mieszczaninowi legnickiemu Mikołajowi Ungeraten łaskę, by w obliczu śmierci wybrany przez Mikołaja spowiednik mógł jeden raz udzielić mu mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1554,38 +1530,54 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"MVB 5, nr 776; RG 2, nr 06083"</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 188r et f. 188v (cancellata)"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Q425</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>Q116</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>"188v (cancellata)"</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -1601,12 +1593,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>+1394-06-09T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1640,44 +1632,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
           <t>Q2</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1690,31 +1666,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q105</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Q274</t>
+          <t>"MVB 5, nr 776; RG 2, nr 06083"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1729,17 +1713,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q105</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Q256</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1773,12 +1757,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q105</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1807,17 +1791,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q105</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1846,17 +1830,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q105</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Q105</t>
+          <t>"Nicolao Ungeroten, opidano opidi in Legenicz, Wratislauiensis diocesis"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1885,33 +1869,49 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q105</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -1924,17 +1924,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q105</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q274</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1963,17 +1963,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q105</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q256</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2002,17 +2002,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Q263</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2041,17 +2041,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Q428</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2080,17 +2080,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Q352</t>
+          <t>Q105</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2119,17 +2119,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q105</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Mikołajowi z Bolesławca i jego żonie Weronice, mieszczanom wrocławskim, łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2158,59 +2158,35 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 191r"</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Q427</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Q116</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>"191r"</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -2221,17 +2197,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>+1394-06-22T00:00:00Z/11/J</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2241,7 +2217,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2265,12 +2241,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q67</t>
+          <t>Q263</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2304,34 +2280,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"MVB 5, nr 780; RG 2, nr 05749"</t>
+          <t>Q428</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Q425</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
           <t>Q3</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2351,12 +2319,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q352</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2390,44 +2358,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+          <t>"Papież Bonifacy IX przyznaje Mikołajowi z Bolesławca i jego żonie Weronice, mieszczanom wrocławskim, łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
           <t>Q3</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2440,35 +2392,59 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q87</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Q86</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 191r"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>Q427</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Q116</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>"191r"</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -2479,17 +2455,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Q86</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Q87</t>
+          <t>+1394-06-22T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2518,17 +2494,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Q86</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Q254</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2557,31 +2533,39 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Q87</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Q254</t>
+          <t>"MVB 5, nr 780; RG 2, nr 05749"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2601,7 +2585,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2635,17 +2619,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2679,12 +2663,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Q86</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2713,17 +2697,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>P20</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>Q86</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>P26</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Q3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2757,7 +2741,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2791,17 +2775,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Q87</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>"Nicolao de Boleslavia civibus Wratislauiensibus"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2830,17 +2814,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>"Veronice, eius uxori, civibus Wratislauiensibus"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2869,33 +2853,49 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Q66</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>P26</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -2908,17 +2908,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Q263</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2947,17 +2947,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Q428</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2986,17 +2986,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Q352</t>
+          <t>Q254</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -3025,17 +3025,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje szlachetnej Elżbiecie, wdowie po Piotrze z Prochowic (Parchwic), łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q254</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -3064,59 +3064,35 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 189r"</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Q427</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Q116</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>"189r"</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -3127,17 +3103,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>+1394-06-15T00:00:00Z/11/J</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3147,7 +3123,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -3166,17 +3142,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q67</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3186,7 +3162,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -3205,39 +3181,31 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q86</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"MVB 5, nr 778; RG 2, nr 01599"</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Q425</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3252,17 +3220,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3272,7 +3240,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -3291,49 +3259,33 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q87</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -3346,17 +3298,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Q109</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3366,7 +3318,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3385,17 +3337,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Q109</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3405,7 +3357,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -3424,17 +3376,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>P32</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Q327</t>
+          <t>Q263</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3463,17 +3415,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Q327</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P40</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q428</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3502,17 +3454,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Q109</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q108</t>
+          <t>Q352</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3541,17 +3493,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Q108</t>
+          <t>"Papież Bonifacy IX przyznaje szlachetnej Elżbiecie, wdowie po Piotrze z Prochowic (Parchwic), łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3580,35 +3532,59 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q256</t>
+          <t>"AAV, Reg. Lat., vol. 34, f. 189r"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>Q427</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Q116</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>"189r"</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -3624,12 +3600,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>+1394-06-15T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3658,17 +3634,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3702,26 +3678,34 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Q109</t>
+          <t>"MVB 5, nr 778; RG 2, nr 01599"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3736,17 +3720,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Q109</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3780,12 +3764,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q109</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3814,17 +3798,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q109</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3853,17 +3837,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q109</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>"nobili mulieri Elizabeth, relicte quondam nobilis viri Petri de Parchwicz, baronis de Parchwicz, Wratislauiensis diocesis"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3892,33 +3876,49 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>Q66</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>P26</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
@@ -3931,31 +3931,39 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>Q109</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Q107</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>P38</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>"zmarły"</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>P24</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Q327</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3970,31 +3978,39 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Q327</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>Q109</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>P38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>"zmarły"</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -4009,17 +4025,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P32</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q263</t>
+          <t>Q327</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4029,7 +4045,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -4048,17 +4064,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q327</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P40</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Q428</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4068,7 +4084,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -4087,17 +4103,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q109</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Q352</t>
+          <t>Q108</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4107,7 +4123,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -4126,17 +4142,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Janowi Scalerowi i jego żonie Dorocie, mieszczanom krakowskim, łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q108</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4146,7 +4162,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -4165,59 +4181,35 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 194r"</t>
+          <t>Q256</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Q427</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Q116</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>"194r"</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -4228,17 +4220,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>+1394-08-04T00:00:00Z/11/J</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4248,7 +4240,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -4267,17 +4259,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Q67</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4287,7 +4279,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -4306,39 +4298,31 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"BP 3, nr 376"</t>
+          <t>Q109</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Q425</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4353,17 +4337,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q109</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4373,7 +4357,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -4392,49 +4376,33 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
@@ -4447,17 +4415,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>Q107</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4467,7 +4435,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -4486,17 +4454,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4506,7 +4474,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -4525,17 +4493,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>Q66</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Q260</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4545,7 +4513,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -4564,17 +4532,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Q260</t>
+          <t>Q327</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4584,7 +4552,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -4603,17 +4571,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q327</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4623,7 +4591,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -4642,17 +4610,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q263</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4686,12 +4654,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>Q428</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4720,17 +4688,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q352</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4764,12 +4732,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>"Papież Bonifacy IX przyznaje Janowi Scalerowi i jego żonie Dorocie, mieszczanom krakowskim, łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4798,35 +4766,59 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>"AAV, Reg. Lat., vol. 34, f. 194r"</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Q427</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Q116</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>"194r"</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
           <t>Q5</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
@@ -4842,12 +4834,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>+1394-08-04T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4876,17 +4868,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4912,6 +4904,849 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>"BP 3, nr 376"</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>P17</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>P18</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>P19</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Q110</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>P19</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Q111</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>P20</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Q110</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>P20</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Q111</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Q110</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>"Iohanni Scaler"</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Q111</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>"Dorothee, eius uxori, civibus Cracouiensibus"</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Q111</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Q110</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Q110</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Q111</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Q110</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>P37</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Q260</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Q111</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>P37</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Q260</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Q110</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Q110</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Q111</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Q111</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:Q210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -437,16 +437,8 @@
           <t>Q428</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr"/>
@@ -463,7 +455,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,16 +468,8 @@
           <t>Q352</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -502,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -512,19 +496,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Hilli, żonie Bernarda z Anhausen, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
+          <t>"Papież Bonifacy IX przyznaje Arnoldowi ze Starego Gromadzyna, prepozytowi płockiemu, łaskę, by w obliczu śmierci wybrany przez Arnolda spowiednik mógł jeden raz udzielić mu mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -541,59 +517,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 178r et 213r (cancellata)"</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Q427</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Q116</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>"178r et 213r (cancellata)"</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
+          <t>Q616</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -604,29 +548,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q616</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+1394-03-13T00:00:00Z/11/J</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -643,29 +579,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q67</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
+          <t>+1394-10-26T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -682,39 +610,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"RG 2, col. 528, nr 03414"</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Q425</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -729,27 +641,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>"BP 3, nr 409"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q425</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -768,17 +680,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>Q536</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -788,7 +700,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -807,17 +719,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -827,7 +739,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -846,17 +758,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Hille, dilecti filii Bernardi de Ahusen uxori, Warmiensis diocesis"</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -866,7 +778,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -885,49 +797,33 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>"Arnoldo Iacobi de Gromadzino, preposito ecclesie Plocensis"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -940,31 +836,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>Q616</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q89</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -979,31 +883,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q89</t>
+          <t>Q616</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1018,31 +930,39 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>Q616</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q93</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1057,31 +977,39 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q616</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1096,17 +1024,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P32</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q140</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1116,7 +1044,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1135,17 +1063,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q140</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1155,7 +1083,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1174,17 +1102,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q91</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1194,7 +1122,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1213,17 +1141,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q89</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1233,7 +1161,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1252,17 +1180,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q89</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1272,7 +1200,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1291,17 +1219,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1311,7 +1239,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1330,29 +1258,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P55</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1369,29 +1289,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q263</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1408,29 +1320,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q428</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1447,29 +1351,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q352</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
+          <t>"Papież Bonifacy IX przyznaje Mikołajowi malarzowi i jego żonie Agnieszce, mieszczanom krakowskim, łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1486,29 +1382,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje mieszczaninowi legnickiemu Mikołajowi Ungeraten łaskę, by w obliczu śmierci wybrany przez Mikołaja spowiednik mógł jeden raz udzielić mu mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
+          <t>Q617</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1525,59 +1413,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q617</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 188r et f. 188v (cancellata)"</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Q427</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Q116</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>"188v (cancellata)"</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -1588,7 +1444,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1598,19 +1454,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>+1394-06-09T00:00:00Z/11/J</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
+          <t>+1396-11-09T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1627,7 +1475,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1640,16 +1488,8 @@
           <t>Q67</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1666,7 +1506,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1676,7 +1516,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"MVB 5, nr 776; RG 2, nr 06083"</t>
+          <t>"BP 3, nr 461"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1689,16 +1529,8 @@
           <t>Q425</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1713,17 +1545,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q536</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1733,7 +1565,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1752,17 +1584,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q105</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1772,7 +1604,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1791,17 +1623,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q105</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1811,7 +1643,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1830,17 +1662,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q105</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Nicolao Ungeroten, opidano opidi in Legenicz, Wratislauiensis diocesis"</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1850,7 +1682,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1869,49 +1701,33 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -1924,17 +1740,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q105</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Q274</t>
+          <t>"Nicolao pictori laico"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1944,7 +1760,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -1963,17 +1779,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q105</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Q256</t>
+          <t>"Agneti, eius uxori, civibus Cracouiensibus"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1983,7 +1799,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2002,31 +1818,39 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q617</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2041,31 +1865,39 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q617</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2080,31 +1912,39 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q617</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Q105</t>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2119,31 +1959,39 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q105</t>
+          <t>Q617</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2158,17 +2006,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2178,7 +2026,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2197,17 +2045,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2217,7 +2065,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2236,17 +2084,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q263</t>
+          <t>Q260</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2256,7 +2104,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2275,17 +2123,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Q428</t>
+          <t>Q260</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2295,7 +2143,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -2314,17 +2162,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Q352</t>
+          <t>Q251</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2334,7 +2182,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -2353,17 +2201,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Mikołajowi z Bolesławca i jego żonie Weronice, mieszczanom wrocławskim, łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q251</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2373,7 +2221,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2392,59 +2240,35 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P36</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 191r"</t>
+          <t>Q655</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Q427</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Q116</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>"191r"</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -2455,17 +2279,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>+1394-06-22T00:00:00Z/11/J</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2475,7 +2299,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -2494,17 +2318,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Q67</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2514,7 +2338,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2533,39 +2357,31 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"MVB 5, nr 780; RG 2, nr 05749"</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Q425</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2580,17 +2396,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2600,7 +2416,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2619,17 +2435,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Q86</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2639,7 +2455,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2658,17 +2474,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Q87</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2678,7 +2494,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2697,29 +2513,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P55</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Q86</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -2736,29 +2544,21 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Q87</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2775,29 +2575,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Q86</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Nicolao de Boleslavia civibus Wratislauiensibus"</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2814,29 +2606,21 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Q87</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Veronice, eius uxori, civibus Wratislauiensibus"</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+          <t>"Papież Bonifacy IX przyznaje Katarzynie z Krakowa, wdowie po Janie Kranczu, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -2853,49 +2637,25 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+          <t>Q618</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -2908,29 +2668,21 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Q87</t>
+          <t>Q618</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Q86</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2947,29 +2699,21 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Q86</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Q87</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+          <t>+1396-11-09T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -2986,29 +2730,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Q86</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Q254</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -3025,27 +2761,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Q87</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Q254</t>
+          <t>"BP 3, nr 462"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q425</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -3064,17 +2800,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q536</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3084,7 +2820,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -3103,17 +2839,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3123,7 +2859,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -3142,17 +2878,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q86</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3162,7 +2898,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -3181,17 +2917,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Q86</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>"Catherine, relicte quondam Iohannis Kranch, vidue Cracouiensi"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3201,7 +2937,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -3220,31 +2956,39 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q618</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q87</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3259,31 +3003,39 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Q87</t>
+          <t>Q618</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3298,31 +3050,39 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q618</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Q66</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3337,31 +3097,39 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>Q618</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>Q66</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>P26</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3376,31 +3144,39 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Q263</t>
+          <t>Q145</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+          <t>"zmarły zmarły"</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Q12</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3415,31 +3191,39 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q145</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Q428</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+          <t>"zmarły zmarły"</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Q12</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3454,17 +3238,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P36</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q352</t>
+          <t>Q300</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3474,7 +3258,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -3493,17 +3277,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje szlachetnej Elżbiecie, wdowie po Piotrze z Prochowic (Parchwic), łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q264</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3513,7 +3297,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -3532,59 +3316,35 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 189r"</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Q427</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Q116</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>"189r"</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -3595,17 +3355,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>+1394-06-15T00:00:00Z/11/J</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3615,7 +3375,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -3634,17 +3394,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q67</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3654,7 +3414,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -3673,39 +3433,31 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"MVB 5, nr 778; RG 2, nr 01599"</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Q425</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3720,29 +3472,21 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P55</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Q249</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -3759,29 +3503,21 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Q109</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -3798,29 +3534,21 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Q109</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -3837,29 +3565,21 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Q109</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"nobili mulieri Elizabeth, relicte quondam nobilis viri Petri de Parchwicz, baronis de Parchwicz, Wratislauiensis diocesis"</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>"Papież Bonifacy IX przyznaje Katarzynie, żonie mieszczanina krakowskiego Andrzeja Wierzynka, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -3876,49 +3596,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>Q619</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
@@ -3931,39 +3627,23 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Q109</t>
+          <t>Q619</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Q107</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>P38</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>"zmarły"</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3978,39 +3658,23 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Q109</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>P38</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>"zmarły"</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>+1396-11-09T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -4025,29 +3689,21 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>P32</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q327</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -4064,27 +3720,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Q327</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>P40</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>"BP 3, nr 463"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q425</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -4103,17 +3759,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Q109</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Q108</t>
+          <t>Q536</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4123,7 +3779,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -4142,17 +3798,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q148</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q108</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4162,7 +3818,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -4181,17 +3837,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q148</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Q256</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4201,7 +3857,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -4220,17 +3876,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q148</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>"Catherine, uxori dilecti filii Andree Wirsingi, laici Cracouiensis"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4240,7 +3896,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -4259,31 +3915,39 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q619</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4298,31 +3962,39 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q619</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Q109</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4337,31 +4009,39 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Q109</t>
+          <t>Q619</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4376,31 +4056,39 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q619</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4415,31 +4103,39 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Q107</t>
+          <t>Q148</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q147</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+          <t>"zmarły"</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Q13</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4454,31 +4150,39 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q147</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q148</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+          <t>"zmarły"</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Q13</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4493,17 +4197,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q147</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q260</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4513,7 +4217,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -4532,17 +4236,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q147</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Q327</t>
+          <t>Q251</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4552,7 +4256,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -4571,17 +4275,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Q327</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4591,7 +4295,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -4610,17 +4314,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Q263</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4630,7 +4334,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -4649,17 +4353,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Q428</t>
+          <t>Q148</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4669,7 +4373,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -4688,17 +4392,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q148</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Q352</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4708,7 +4412,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -4727,29 +4431,21 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P55</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Janowi Scalerowi i jego żonie Dorocie, mieszczanom krakowskim, łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
@@ -4766,59 +4462,27 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"AAV, Reg. Lat., vol. 34, f. 194r"</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Q427</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>P12</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Q116</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>P13</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>"194r"</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
@@ -4829,29 +4493,21 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>+1394-08-04T00:00:00Z/11/J</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
@@ -4868,29 +4524,21 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Q67</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>"Papież Bonifacy IX przyznaje Katarzynie, wdowie po Mikołaju Schutzu, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -4907,39 +4555,23 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"BP 3, nr 376"</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Q425</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>Q620</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4954,29 +4586,21 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q620</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Q249</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>Q14</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -4993,29 +4617,21 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Q110</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>+1394-05-07T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
@@ -5032,29 +4648,21 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Q111</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -5071,27 +4679,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>"BP 3, nr 366"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q425</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -5110,17 +4718,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>Q536</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5130,7 +4738,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -5149,17 +4757,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Iohanni Scaler"</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5169,7 +4777,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -5188,17 +4796,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"Dorothee, eius uxori, civibus Cracouiensibus"</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5208,7 +4816,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -5227,49 +4835,33 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+          <t>"Catherine, relicte quondam Nicolai Schutz Schucz laici , vidue Cracouiensi"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
+          <t>Q14</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
@@ -5282,31 +4874,39 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>Q620</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5321,31 +4921,39 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>Q620</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5360,31 +4968,39 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>Q620</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Q260</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5399,31 +5015,39 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>Q620</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Q260</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5438,31 +5062,39 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q155</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+          <t>"zmarły zmarły"</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Q14</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5477,31 +5109,39 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q155</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+          <t>"zmarły zmarły"</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Q14</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5516,17 +5156,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q155</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>Q264</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5536,7 +5176,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -5555,17 +5195,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Q110</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q264</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5575,7 +5215,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -5594,7 +5234,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5604,7 +5244,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5614,7 +5254,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -5633,7 +5273,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Q111</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5643,7 +5283,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5653,7 +5293,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -5672,7 +5312,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5682,7 +5322,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5692,7 +5332,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -5711,7 +5351,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Q66</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5721,7 +5361,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5731,7 +5371,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -5747,6 +5387,3030 @@
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>P55</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>"Papież Bonifacy IX przyznaje mieszczaninowi krakowskiemu Piotrowi Fochsczagilowi i jego żonie Małgorzacie łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>P54</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Q621</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Q621</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>P53</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>+1396-11-18T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>P15</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>"BP 3, nr 467"</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>P17</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Q536</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Q537</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Q158</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Q537</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Q538</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Q158</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Q538</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>"Petro Fochsrzagil laico"</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Q158</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>"Margarete, eius uxori"</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Q621</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Q621</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Q621</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Q621</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Q158</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Q158</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>P35</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Q251</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Q158</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Q158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>P55</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>"Papież Bonifacy IX przyznaje Elżbiecie, żonie mieszczanina wrocławskiego Mikołaja Neumarkta, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>P54</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Q614</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Q614</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>P53</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>+1394-08-13T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>P15</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>"MVB 5, nr 791; RG 2, nr 01598"</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>P17</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Q536</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Q132</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Q537</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Q132</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Q538</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Q132</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>"Elizabeth, uxori dilecti filii Nicolai Neumarct, civis Wratislauiensis"</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Q614</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Q614</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Q614</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Q614</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Q132</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Q131</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Q131</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Q132</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Q131</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>P37</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Q254</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Q132</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Q132</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>P55</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>"Papież Bonifacy IX przyznaje Aleksandrze, żonie księcia mazowieckiego Siemowita IV, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>P54</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Q615</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Q615</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>P53</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>+1394-09-13T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>P15</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>P16</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>"BP 3, nr 394"</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>P17</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Q536</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Q135</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Q537</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Q135</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Q538</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Q135</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>"nobili mulieri Alexandre, dilecti filii nobilis viri Semouiti ducis Mazovie uxori"</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Q615</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Q615</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Q615</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Q615</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Q135</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Q136</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Q136</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Q135</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Q136</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>P32</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Q137</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Q137</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>P40</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Q136</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Q135</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>P37</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Q108</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Q136</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>P37</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Q108</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Q135</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Q135</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q210"/>
+  <dimension ref="A1:Q186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,8 +530,16 @@
           <t>Q616</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Q427</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -883,39 +891,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q616</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P32</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q140</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -930,39 +930,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q616</t>
+          <t>Q140</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q142</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -977,39 +969,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q616</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1024,17 +1008,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q142</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P32</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q140</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1063,12 +1047,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q140</t>
+          <t>Q10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P40</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1102,17 +1086,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Q142</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Q10</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>P24</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Q249</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1141,29 +1125,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P55</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q10</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Q10</t>
-        </is>
-      </c>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1180,29 +1156,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q10</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q142</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Q10</t>
-        </is>
-      </c>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1219,29 +1187,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q142</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q10</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Q10</t>
-        </is>
-      </c>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1263,12 +1223,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>P55</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q263</t>
+          <t>"Papież Bonifacy IX przyznaje Mikołajowi malarzowi i jego żonie Agnieszce, mieszczanom krakowskim, łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1294,16 +1254,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q428</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+          <t>Q617</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Q427</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1320,17 +1288,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Q617</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>P53</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Q11</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Q352</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1356,12 +1324,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Mikołajowi malarzowi i jego żonie Agnieszce, mieszczanom krakowskim, łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>+1396-11-09T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1387,12 +1355,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P54</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q617</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1413,21 +1381,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q617</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Q11</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+          <t>"BP 3, nr 461"</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Q425</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1444,21 +1420,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Q536</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Q11</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>+1396-11-09T00:00:00Z/11/J</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1475,21 +1459,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Q143</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Q537</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Q11</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>P15</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Q67</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1506,27 +1498,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Q144</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Q537</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Q11</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>"BP 3, nr 461"</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Q425</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1545,7 +1537,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1555,7 +1547,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Q536</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1584,7 +1576,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q143</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1594,7 +1586,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q537</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1623,17 +1615,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q144</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q537</t>
+          <t>"Nicolao pictori laico"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1662,17 +1654,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q143</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Q538</t>
+          <t>"Agneti, eius uxori, civibus Cracouiensibus"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1701,31 +1693,39 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q144</t>
+          <t>Q617</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Q538</t>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Q11</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1740,17 +1740,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Q144</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Q143</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>P25</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>"Nicolao pictori laico"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1779,17 +1779,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Q143</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Q144</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>P25</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>"Agneti, eius uxori, civibus Cracouiensibus"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1818,39 +1818,31 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q617</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+          <t>Q260</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1865,39 +1857,31 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q617</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+          <t>Q260</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1912,39 +1896,31 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q617</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+          <t>Q251</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1959,39 +1935,31 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q617</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+          <t>Q251</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2006,17 +1974,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q144</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P36</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q143</t>
+          <t>Q655</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2045,17 +2013,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Q143</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q144</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2084,17 +2052,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Q143</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q260</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2123,17 +2091,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q144</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Q260</t>
+          <t>Q143</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2167,12 +2135,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Q251</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2201,17 +2169,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Q144</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>P35</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Q251</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2240,17 +2208,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q143</t>
+          <t>Q144</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P36</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Q655</t>
+          <t>Q11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2279,29 +2247,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P55</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Q249</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Q11</t>
-        </is>
-      </c>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -2318,29 +2278,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Q11</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Q11</t>
-        </is>
-      </c>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -2357,29 +2309,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Q143</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Q11</t>
-        </is>
-      </c>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -2396,29 +2340,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Q143</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Q11</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Q11</t>
-        </is>
-      </c>
+          <t>"Papież Bonifacy IX przyznaje Katarzynie z Krakowa, wdowie po Janie Kranczu, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -2435,27 +2371,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Q144</t>
+          <t>Q618</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2474,29 +2410,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Q144</t>
+          <t>Q618</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Q11</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Q11</t>
-        </is>
-      </c>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2518,12 +2446,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P55</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Q263</t>
+          <t>+1396-11-09T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2549,12 +2477,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Q428</t>
+          <t>Q67</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2580,16 +2508,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Q352</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+          <t>"BP 3, nr 462"</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>P17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Q425</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2606,21 +2542,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Q536</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Q12</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>"Papież Bonifacy IX przyznaje Katarzynie z Krakowa, wdowie po Janie Kranczu, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -2637,21 +2581,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>Q146</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Q537</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Q12</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>P54</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Q618</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -2668,21 +2620,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Q618</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>Q538</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Q12</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2699,21 +2659,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>Q146</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>"Catherine, relicte quondam Iohannis Kranch, vidue Cracouiensi"</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Q12</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>+1396-11-09T00:00:00Z/11/J</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -2730,23 +2698,39 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q618</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Q67</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2761,31 +2745,39 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>Q146</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Q145</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>P38</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>"zmarły zmarły"</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Q12</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>"BP 3, nr 462"</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Q425</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2800,17 +2792,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q145</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Q536</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2844,12 +2836,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P36</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Q537</t>
+          <t>Q300</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2883,12 +2875,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q538</t>
+          <t>Q264</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2917,17 +2909,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Catherine, relicte quondam Iohannis Kranch, vidue Cracouiensi"</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2956,39 +2948,31 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Q618</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3003,39 +2987,31 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Q618</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3050,39 +3026,31 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Q618</t>
+          <t>Q146</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q12</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3097,39 +3065,23 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q618</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P55</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3144,39 +3096,23 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Q145</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>P38</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>"zmarły zmarły"</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3191,39 +3127,23 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Q145</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Q146</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>P38</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>"zmarły zmarły"</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3238,29 +3158,21 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>P36</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q300</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
+          <t>"Papież Bonifacy IX przyznaje Katarzynie, żonie mieszczanina krakowskiego Andrzeja Wierzynka, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -3277,27 +3189,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Q264</t>
+          <t>Q619</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -3316,29 +3228,21 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q619</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q249</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -3355,29 +3259,21 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Q12</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
+          <t>+1396-11-09T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -3394,29 +3290,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q146</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
@@ -3433,27 +3321,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>"BP 3, nr 463"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q425</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3472,21 +3360,29 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Q536</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>Q13</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>P55</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Q263</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -3503,21 +3399,29 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>Q148</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Q537</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>Q13</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Q428</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -3534,21 +3438,29 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>Q148</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>P39</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Q538</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>Q13</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Q352</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -3565,21 +3477,29 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>Q148</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>"Catherine, uxori dilecti filii Andree Wirsingi, laici Cracouiensis"</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>Q13</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>"Papież Bonifacy IX przyznaje Katarzynie, żonie mieszczanina krakowskiego Andrzeja Wierzynka, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -3596,23 +3516,39 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q619</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>P54</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q619</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3627,23 +3563,39 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Q619</t>
+          <t>Q148</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>Q147</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>P38</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>"zmarły"</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>Q13</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3658,21 +3610,29 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>Q147</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Q148</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>Q13</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>+1396-11-09T00:00:00Z/11/J</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -3689,21 +3649,29 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>Q147</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>P37</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Q260</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>Q13</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>P15</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Q67</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -3720,27 +3688,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>Q147</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>P35</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Q251</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>Q13</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>"BP 3, nr 463"</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Q425</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -3759,17 +3727,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>Q249</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>P39</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Q536</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3798,17 +3766,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q148</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q537</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3837,17 +3805,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>Q148</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>P39</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Q538</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3881,12 +3849,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Catherine, uxori dilecti filii Andree Wirsingi, laici Cracouiensis"</t>
+          <t>Q13</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3915,39 +3883,23 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Q619</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P55</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3962,39 +3914,23 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Q619</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4009,39 +3945,23 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Q619</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4056,39 +3976,23 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Q619</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>"Papież Bonifacy IX przyznaje Katarzynie, wdowie po Mikołaju Schutzu, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4103,39 +4007,31 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Q148</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Q147</t>
+          <t>Q620</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>"zmarły"</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Q13</t>
-        </is>
-      </c>
+          <t>Q427</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4150,39 +4046,23 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Q147</t>
+          <t>Q620</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Q148</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>P38</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>"zmarły"</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Q13</t>
-        </is>
-      </c>
+          <t>Q14</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4197,29 +4077,21 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Q147</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Q260</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Q13</t>
-        </is>
-      </c>
+          <t>+1394-05-07T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
@@ -4236,29 +4108,21 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q147</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Q251</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Q13</t>
-        </is>
-      </c>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -4275,27 +4139,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>"BP 3, nr 366"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q425</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -4319,12 +4183,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q536</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4334,7 +4198,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -4353,17 +4217,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Q148</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4373,7 +4237,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -4392,17 +4256,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q148</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4412,7 +4276,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -4431,21 +4295,29 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>Q154</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>"Catherine, relicte quondam Nicolai Schutz Schucz laici , vidue Cracouiensi"</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>Q14</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>P55</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Q263</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
@@ -4462,23 +4334,39 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>Q620</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Q428</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4493,23 +4381,39 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>Q154</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Q155</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>P38</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>"zmarły zmarły"</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>Q14</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Q352</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4524,21 +4428,29 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>Q155</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Q154</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t>Q14</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>"Papież Bonifacy IX przyznaje Katarzynie, wdowie po Mikołaju Schutzu, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -4555,21 +4467,29 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>Q155</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Q264</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
           <t>Q14</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>P54</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Q620</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -4586,21 +4506,29 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Q620</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>Q264</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>Q14</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -4622,16 +4550,24 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>+1394-05-07T00:00:00Z/11/J</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Q14</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
@@ -4648,21 +4584,29 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>Q14</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>P15</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Q67</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Q14</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -4684,22 +4628,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"BP 3, nr 366"</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Q425</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -4718,17 +4662,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q154</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Q536</t>
+          <t>Q14</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4757,29 +4701,21 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Q154</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P55</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Q537</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Q14</t>
-        </is>
-      </c>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -4796,29 +4732,21 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Q154</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Q538</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Q14</t>
-        </is>
-      </c>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -4835,29 +4763,21 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Q154</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Catherine, relicte quondam Nicolai Schutz Schucz laici , vidue Cracouiensi"</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Q14</t>
-        </is>
-      </c>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
@@ -4874,39 +4794,23 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Q620</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>"Papież Bonifacy IX przyznaje mieszczaninowi krakowskiemu Piotrowi Fochsczagilowi i jego żonie Małgorzacie łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4921,39 +4825,31 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Q620</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q621</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q427</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4968,39 +4864,23 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Q620</t>
+          <t>Q621</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5015,39 +4895,23 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Q620</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>+1396-11-18T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5062,39 +4926,23 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Q154</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Q155</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>P38</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>"zmarły zmarły"</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Q14</t>
-        </is>
-      </c>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5109,39 +4957,31 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Q155</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Q154</t>
+          <t>"BP 3, nr 467"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>"zmarły zmarły"</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Q14</t>
-        </is>
-      </c>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5156,17 +4996,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Q155</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Q264</t>
+          <t>Q536</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5176,7 +5016,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -5195,17 +5035,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Q154</t>
+          <t>Q157</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Q264</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5215,7 +5055,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -5234,17 +5074,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>Q158</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5254,7 +5094,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -5273,17 +5113,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q157</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5293,7 +5133,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -5312,17 +5152,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>Q158</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Q154</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5332,7 +5172,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -5351,17 +5191,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Q154</t>
+          <t>Q157</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>"Petro Fochsrzagil laico"</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5371,7 +5211,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -5390,21 +5230,29 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>Q158</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>P25</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>"Margarete, eius uxori"</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
           <t>Q15</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>P55</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Q263</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
@@ -5421,23 +5269,39 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q621</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Q428</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
+          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5452,21 +5316,29 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>Q158</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
           <t>Q15</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Q352</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
@@ -5483,21 +5355,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Q158</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
           <t>Q15</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>"Papież Bonifacy IX przyznaje mieszczaninowi krakowskiemu Piotrowi Fochsczagilowi i jego żonie Małgorzacie łaskę, by w obliczu śmierci wybrani przez nich spowiednicy mogli jeden raz udzielić im mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
@@ -5514,21 +5394,29 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>P35</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Q251</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
           <t>Q15</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>P54</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Q621</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -5545,21 +5433,29 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Q621</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
           <t>Q15</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -5576,21 +5472,29 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
           <t>Q15</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>+1396-11-18T00:00:00Z/11/J</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
@@ -5612,16 +5516,24 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Q67</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
@@ -5638,27 +5550,27 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>Q157</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
           <t>Q15</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>"BP 3, nr 467"</t>
-        </is>
-      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Q425</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -5677,17 +5589,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Q536</t>
+          <t>Q158</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5716,17 +5628,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Q157</t>
+          <t>Q158</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Q537</t>
+          <t>Q15</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5755,29 +5667,21 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Q158</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P55</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Q537</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Q15</t>
-        </is>
-      </c>
+          <t>Q263</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
@@ -5794,29 +5698,21 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Q157</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Q538</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Q15</t>
-        </is>
-      </c>
+          <t>Q428</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -5833,29 +5729,21 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Q158</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Q538</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Q15</t>
-        </is>
-      </c>
+          <t>Q352</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -5872,29 +5760,21 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Q157</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"Petro Fochsrzagil laico"</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Q15</t>
-        </is>
-      </c>
+          <t>"Papież Bonifacy IX przyznaje Elżbiecie, żonie mieszczanina wrocławskiego Mikołaja Neumarkta, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -5911,27 +5791,27 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Q158</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Margarete, eius uxori"</t>
+          <t>Q614</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q427</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -5950,39 +5830,23 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Q621</t>
+          <t>Q614</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5997,39 +5861,23 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Q621</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>+1394-08-13T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6044,39 +5892,23 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Q621</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6091,39 +5923,31 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Q621</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"N(icolaus). XVI. de Ben(even)to."</t>
+          <t>"MVB 5, nr 791; RG 2, nr 01598"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>Q425</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6138,17 +5962,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Q158</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Q157</t>
+          <t>Q536</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6158,7 +5982,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -6177,17 +6001,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Q157</t>
+          <t>Q132</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Q158</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6197,7 +6021,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -6216,17 +6040,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Q157</t>
+          <t>Q132</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Q251</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6236,7 +6060,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -6255,17 +6079,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q132</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>"Elizabeth, uxori dilecti filii Nicolai Neumarct, civis Wratislauiensis"</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6275,7 +6099,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -6294,31 +6118,39 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q614</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Q15</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6333,17 +6165,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q132</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Q157</t>
+          <t>Q131</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6353,7 +6185,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -6372,17 +6204,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Q157</t>
+          <t>Q131</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q132</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6392,7 +6224,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -6411,17 +6243,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q131</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Q158</t>
+          <t>Q254</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6431,7 +6263,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -6450,17 +6282,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Q158</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6470,7 +6302,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -6489,21 +6321,29 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
           <t>Q8</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>P55</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Q263</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
@@ -6525,16 +6365,24 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Q428</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
+          <t>Q132</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
@@ -6551,21 +6399,29 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
+          <t>Q132</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
           <t>Q8</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Q352</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
@@ -6582,17 +6438,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P55</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Elżbiecie, żonie mieszczanina wrocławskiego Mikołaja Neumarkta, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>Q263</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -6613,17 +6469,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>P54</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Q614</t>
+          <t>Q428</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -6644,17 +6500,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Q614</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>P53</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q352</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -6675,17 +6531,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>+1394-08-13T00:00:00Z/11/J</t>
+          <t>"Papież Bonifacy IX przyznaje Aleksandrze, żonie księcia mazowieckiego Siemowita IV, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -6706,21 +6562,29 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Q67</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
+          <t>Q615</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Q427</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
@@ -6737,29 +6601,21 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q615</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>"MVB 5, nr 791; RG 2, nr 01598"</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Q425</t>
-        </is>
-      </c>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
@@ -6776,29 +6632,21 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Q536</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Q8</t>
-        </is>
-      </c>
+          <t>+1394-09-13T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
@@ -6815,29 +6663,21 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Q132</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Q537</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Q8</t>
-        </is>
-      </c>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
@@ -6854,27 +6694,27 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Q132</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Q538</t>
+          <t>"BP 3, nr 394"</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q425</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -6893,17 +6733,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Q132</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>"Elizabeth, uxori dilecti filii Nicolai Neumarct, civis Wratislauiensis"</t>
+          <t>Q536</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6913,7 +6753,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -6932,39 +6772,31 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Q614</t>
+          <t>Q135</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6979,39 +6811,31 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Q614</t>
+          <t>Q135</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7026,39 +6850,31 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Q614</t>
+          <t>Q135</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>"nobili mulieri Alexandre, dilecti filii nobilis viri Semouiti ducis Mazovie uxori"</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7073,7 +6889,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Q614</t>
+          <t>Q615</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7120,7 +6936,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Q132</t>
+          <t>Q135</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7130,7 +6946,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Q131</t>
+          <t>Q136</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7140,7 +6956,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -7159,7 +6975,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Q131</t>
+          <t>Q136</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7169,7 +6985,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Q132</t>
+          <t>Q135</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7179,7 +6995,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -7198,17 +7014,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Q131</t>
+          <t>Q136</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P32</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Q254</t>
+          <t>Q137</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7218,7 +7034,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -7237,17 +7053,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q137</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P40</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q136</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7257,7 +7073,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -7276,17 +7092,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q135</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q108</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -7296,7 +7112,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -7315,17 +7131,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q136</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Q132</t>
+          <t>Q108</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7335,7 +7151,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -7354,17 +7170,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Q132</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -7374,7 +7190,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q9</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -7393,21 +7209,29 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
           <t>Q9</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>P55</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Q263</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
@@ -7429,16 +7253,24 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Q428</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
+          <t>Q135</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
@@ -7455,21 +7287,29 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>Q135</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
           <t>Q9</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Q352</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
@@ -7483,934 +7323,6 @@
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>"Papież Bonifacy IX przyznaje Aleksandrze, żonie księcia mazowieckiego Siemowita IV, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>P54</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Q615</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Q615</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>P53</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>+1394-09-13T00:00:00Z/11/J</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>P15</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Q67</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>P16</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>"BP 3, nr 394"</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Q425</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Q249</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>P39</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Q536</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Q135</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>P39</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Q537</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Q135</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>P39</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Q538</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Q135</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>P25</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>"nobili mulieri Alexandre, dilecti filii nobilis viri Semouiti ducis Mazovie uxori"</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Q615</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>P21</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Q615</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>P21</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Q615</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>P21</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="inlineStr"/>
-      <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Q615</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>P21</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>P22</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
-      <c r="N200" t="inlineStr"/>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Q135</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Q136</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Q136</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Q135</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Q136</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>P32</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Q137</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr"/>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Q137</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>P40</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Q136</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Q135</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>P37</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Q108</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Q136</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>P37</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Q108</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>P24</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Q249</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Q249</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>P26</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>P24</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Q135</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr"/>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Q135</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>P26</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Q428</t>
+          <t>Q429</t>
         </is>
       </c>
       <c r="D1" t="inlineStr"/>
@@ -455,7 +455,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -465,7 +465,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q352</t>
+          <t>Q355</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q907</t>
+          <t>Q940</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -517,7 +517,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q907</t>
+          <t>Q940</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -548,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX przyznaje Katarzynie z Krakowa, wdowie po Janie Kranczu, łaskę, by w obliczu śmierci wybrany przez nią spowiednik mógł jeden raz udzielić jej mocą władzy apostolskiej pełnego odpuszczenia grzechów, pod określonymi warunkami."</t>
+          <t>"Papież Bonifacy IX udziela prezbiterowi Janowi s. Mikołaja Malkow z Prus przywileju posiadania ołtarza przenośnego."</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -579,7 +579,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q618</t>
+          <t>Q939</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -610,7 +610,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q618</t>
+          <t>Q939</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -641,7 +641,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+1396-11-09T00:00:00Z/11/J</t>
+          <t>+1393-12-17T00:00:00Z/11/J</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -672,7 +672,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -703,7 +703,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"BP 3, nr 462"</t>
+          <t>"RG 2, col. 710, nr 04598"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -781,7 +781,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q82</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -820,7 +820,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q82</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -859,7 +859,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q82</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Catherine, relicte quondam Iohannis Kranch, vidue Cracouiensi"</t>
+          <t>"Iohanni Nicolai Malkow de Prussia, presbytero Culmensis diocesis"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -898,7 +898,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q618</t>
+          <t>Q939</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+          <t>"N(icolaus). X. de Ben(even)to."</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -926,10 +926,8 @@
           <t>P23</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="G15" t="n">
+        <v>10</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -945,39 +943,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q82</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q145</t>
+          <t>Q253</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>"zmarły zmarły"</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
+          <t>Q18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -992,17 +982,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q145</t>
+          <t>Q82</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q192</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1012,7 +1002,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1031,29 +1021,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q145</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q630</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
+          <t>Q249</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1070,29 +1052,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q145</t>
+          <t>Q249</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q260</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
+          <t>Q18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1109,29 +1083,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q260</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
+          <t>Q82</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1148,29 +1114,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q146</t>
+          <t>Q82</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P36</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q300</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
+          <t>Q18</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1184,130 +1142,6 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>P24</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Q249</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Q249</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>P26</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>P24</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Q146</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Q146</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>P26</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Q12</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Q1313</t>
+          <t>Q1807</t>
         </is>
       </c>
       <c r="D1" t="inlineStr"/>
@@ -455,7 +455,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -465,7 +465,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q1396</t>
+          <t>Q1805</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q261</t>
+          <t>Q1697</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -517,7 +517,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q261</t>
+          <t>Q1697</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -548,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Papież Bonifacy IX zezwala Teofilowi Armknecht z Opola (Oppeln), klerykowi diecezji wrocławskiej, na wybór własnego spowiednika, [który będzie mógł udzielać absolucji również od grzechów zastrzeżonych dla Stolicy Apostolskiej (?)]. Ponadto spowiednik ten będzie mógł uwolnić Teofila od cenzur kościelnych, także tych zastrzeżonych dla Stolicy Apostolskiej, o ile jakieś obecnie na nim ciążą."</t>
+          <t>"Papież Urban VI przyjmuje Jana Szczeknę, mnicha klasztoru cystersów w Zbraslaviu, do grona papieskich kapelanów honorowych."</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -579,7 +579,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q572</t>
+          <t>Q1695</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -610,7 +610,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q572</t>
+          <t>Q1695</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -641,17 +641,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P54</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+1398-10-12T00:00:00Z/11/J</t>
+          <t>Q1697</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -672,17 +672,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1697</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q67</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -703,29 +703,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"MVB 5, nr 1363"</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Q425</t>
-        </is>
-      </c>
+          <t>+1388-06-19T00:00:00Z/11/J</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -742,29 +734,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"col. 1106, nr 07183"</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>P17</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Q425</t>
-        </is>
-      </c>
+          <t>Q1641</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -781,27 +765,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q249</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q536</t>
+          <t>"MVB 5, nr 165"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q425</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -820,27 +804,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q1468</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q537</t>
+          <t>"BP 3, nr 58"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q425</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -859,7 +843,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q1468</t>
+          <t>Q1827</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -869,7 +853,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q538</t>
+          <t>Q536</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -879,7 +863,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -898,17 +882,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q1468</t>
+          <t>Q1665</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Theophilo quondam Petri Armknecht de Opol, clerico Wratislauiensis diocesis"</t>
+          <t>Q537</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -918,7 +902,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -937,39 +921,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q572</t>
+          <t>Q1665</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"A. de Portugr(uario)"</t>
+          <t>Q538</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Q1470</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>P58</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Q2102</t>
-        </is>
-      </c>
+          <t>Q1698</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -984,49 +960,33 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q572</t>
+          <t>Q1660</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"N(icolaus). XXX. de Ben(even)to"</t>
+          <t>Q656</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Q66</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>P23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>P58</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Q2101</t>
-        </is>
-      </c>
+          <t>Q1698</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1039,17 +999,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q1468</t>
+          <t>Q1665</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q1472</t>
+          <t>"Iohanni dicto Stiekna, monacho monasterii in Aula Regia, Cisterciensis ordinis, Pragensis diocesis, capellano nostro"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1059,7 +1019,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Q129</t>
+          <t>Q1698</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1078,31 +1038,39 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q1468</t>
+          <t>Q1695</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q256</t>
+          <t>"X"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Q129</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Q2102</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1114,6 +1082,388 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q1695</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>"Oldradus"</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Q1671</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>P58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Q2102</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q1695</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>"G. Gregorii"</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Q1673</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>P58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Q2102</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q1695</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>"P. de Ingelnheim"</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Q1669</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>P58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Q2102</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q1665</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>P32</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Q1825</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Q1698</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q1825</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>P40</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Q1665</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Q1698</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q1665</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>P35</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Q1825</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Q1698</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q1698</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Q1827</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q1827</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Q1698</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q1698</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Q1665</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q1665</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>P26</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Q1698</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
